--- a/Other/Saved_Results_3_1_hidden_space_test_NORMALIZED.xlsx
+++ b/Other/Saved_Results_3_1_hidden_space_test_NORMALIZED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albi2\Documents\GitHub\Variational-Autoencoder-for-EEG-analysis\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380F5786-7FF3-4ACD-9CBF-EED442B84A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F8373-245D-4108-BD57-0511CD67626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="39">
   <si>
     <t>Subject</t>
   </si>
@@ -136,16 +136,10 @@
     <t>Train for 500 epoch, exp lr scheduler, VERY BAD RESULTS</t>
   </si>
   <si>
-    <t>No Validation set</t>
-  </si>
-  <si>
     <t>Only END results are valid (The LOSS are taken at the same epoch of the END)</t>
   </si>
   <si>
     <t>Normal Loss; alpha = 0.1 beta = 1 gamma = 2</t>
-  </si>
-  <si>
-    <t>Exoponential  Schedure (gamma = 0.95)</t>
   </si>
   <si>
     <t>No validation set, wieght decay AdamW default</t>
@@ -275,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10457,11 +10454,11 @@
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -11101,11 +11098,11 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -11745,11 +11742,11 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
@@ -12389,11 +12386,11 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -13033,12 +13030,12 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
@@ -13209,8 +13206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7871E1C6-86E9-47B6-82FD-7BC874F01529}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F64" sqref="B62:F64"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13327,11 +13324,11 @@
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -13689,11 +13686,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
@@ -14048,11 +14045,11 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
@@ -14407,11 +14404,11 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
@@ -14766,10 +14763,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
@@ -15099,8 +15096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709EA490-A22A-4BCF-AD5A-7BEB2DA4FA06}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" activeCellId="1" sqref="B8:B17 B36:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15231,11 +15228,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
@@ -15565,11 +15562,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
@@ -15899,11 +15896,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
@@ -16233,11 +16230,11 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
@@ -16567,10 +16564,10 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
@@ -16887,8 +16884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A36170-D4B1-4F27-91A4-DA5F8347E151}">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:I58"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16992,11 +16989,11 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
@@ -17346,11 +17343,11 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
@@ -17700,11 +17697,11 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
@@ -18054,11 +18051,11 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
@@ -18408,10 +18405,10 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B64" s="11"/>
@@ -18724,8 +18721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C590A2-E27F-48E2-82ED-3E5DCC9A3C2D}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" activeCellId="1" sqref="B36:B45 B8:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18821,28 +18818,28 @@
         <v>18</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -18860,11 +18857,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ref="B8:B16" si="0">AVERAGE(D8:AG8)</f>
-        <v>0.76666680000000009</v>
+        <f>AVERAGE(E8:AG8)</f>
+        <v>0.7847225000000001</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C16" si="1">MAX(D8:AG8)</f>
+        <f>MAX(D8:AG8)</f>
         <v>0.83680600000000005</v>
       </c>
       <c r="D8" s="29">
@@ -18890,12 +18887,12 @@
       <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.51319460000000006</v>
+      <c r="B9" s="3">
+        <f t="shared" ref="B9:B16" si="0">AVERAGE(E9:AG9)</f>
+        <v>0.55208349999999995</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D9:AG9)</f>
         <v>0.62152799999999997</v>
       </c>
       <c r="D9" s="29">
@@ -18921,12 +18918,12 @@
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>0.87291660000000015</v>
+        <v>0.87847224999999995</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D10:AG10)</f>
         <v>0.9375</v>
       </c>
       <c r="D10" s="29">
@@ -18952,12 +18949,12 @@
       <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>0.57916659999999998</v>
+        <v>0.59244775000000005</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D11:AG11)</f>
         <v>0.671875</v>
       </c>
       <c r="D11" s="29">
@@ -18983,12 +18980,12 @@
       <c r="A12" s="22">
         <v>5</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>0.70138879999999992</v>
+        <v>0.703125</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D12:AG12)</f>
         <v>0.79513900000000004</v>
       </c>
       <c r="D12" s="29">
@@ -19014,12 +19011,12 @@
       <c r="A13" s="22">
         <v>6</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>0.81041659999999993</v>
+        <v>0.81510400000000005</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D13:AG13)</f>
         <v>0.83333299999999999</v>
       </c>
       <c r="D13" s="29">
@@ -19045,12 +19042,12 @@
       <c r="A14" s="22">
         <v>7</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>0.71180540000000003</v>
+        <v>0.73784699999999992</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D14:AG14)</f>
         <v>0.79513900000000004</v>
       </c>
       <c r="D14" s="29">
@@ -19076,12 +19073,12 @@
       <c r="A15" s="22">
         <v>8</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>0.85625020000000007</v>
+        <v>0.86892375000000011</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D15:AG15)</f>
         <v>0.90277799999999997</v>
       </c>
       <c r="D15" s="29">
@@ -19109,12 +19106,12 @@
       <c r="A16" s="22">
         <v>9</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>0.88402800000000004</v>
+        <v>0.89149325000000001</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="1"/>
+        <f>MAX(D16:AG16)</f>
         <v>0.90277799999999997</v>
       </c>
       <c r="D16" s="29">
@@ -19142,44 +19139,44 @@
       <c r="A17" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="22">
-        <f>AVERAGE(B8:B16)</f>
-        <v>0.7439815111111111</v>
+      <c r="B17" s="3">
+        <f>AVERAGE(E17:H17)</f>
+        <v>0.75824655555555553</v>
       </c>
       <c r="C17" s="22">
         <f>AVERAGE(C8:C16)</f>
         <v>0.81076399999999982</v>
       </c>
       <c r="D17" s="29">
-        <f t="shared" ref="D17:K17" si="2">AVERAGE(D8:D16)</f>
+        <f t="shared" ref="D17:K17" si="1">AVERAGE(D8:D16)</f>
         <v>0.68692133333333338</v>
       </c>
       <c r="E17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.76793977777777778</v>
       </c>
       <c r="F17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.72974533333333336</v>
       </c>
       <c r="G17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.76118822222222216</v>
       </c>
       <c r="H17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.77411288888888885</v>
       </c>
       <c r="I17" s="29" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="29" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K17" s="29" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="26"/>
@@ -19194,11 +19191,11 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
@@ -19228,11 +19225,11 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ref="B21:B29" si="3">AVERAGE(D21:AG21)</f>
-        <v>0.68888899999999997</v>
+        <f>AVERAGE(E21:AG21)</f>
+        <v>0.71296300000000001</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:C29" si="4">MAX(D21:AG21)</f>
+        <f>MAX(D21:AG21)</f>
         <v>0.78240699999999996</v>
       </c>
       <c r="D21" s="29">
@@ -19260,12 +19257,12 @@
       <c r="A22" s="22">
         <v>2</v>
       </c>
-      <c r="B22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.35092580000000001</v>
+      <c r="B22" s="3">
+        <f t="shared" ref="B22:B29" si="2">AVERAGE(E22:AG22)</f>
+        <v>0.40277750000000001</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D22:AG22)</f>
         <v>0.49536999999999998</v>
       </c>
       <c r="D22" s="29">
@@ -19293,12 +19290,12 @@
       <c r="A23" s="22">
         <v>3</v>
       </c>
-      <c r="B23" s="5">
-        <f t="shared" si="3"/>
-        <v>0.83055560000000006</v>
+      <c r="B23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.83796300000000001</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D23:AG23)</f>
         <v>0.91666700000000001</v>
       </c>
       <c r="D23" s="29">
@@ -19326,12 +19323,12 @@
       <c r="A24" s="22">
         <v>4</v>
       </c>
-      <c r="B24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.43888879999999997</v>
+      <c r="B24" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45659700000000003</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D24:AG24)</f>
         <v>0.5625</v>
       </c>
       <c r="D24" s="29">
@@ -19357,12 +19354,12 @@
       <c r="A25" s="22">
         <v>5</v>
       </c>
-      <c r="B25" s="5">
-        <f t="shared" si="3"/>
-        <v>0.60185200000000005</v>
+      <c r="B25" s="3">
+        <f t="shared" si="2"/>
+        <v>0.60416675000000009</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D25:AG25)</f>
         <v>0.72685200000000005</v>
       </c>
       <c r="D25" s="29">
@@ -19388,12 +19385,12 @@
       <c r="A26" s="22">
         <v>6</v>
       </c>
-      <c r="B26" s="5">
-        <f t="shared" si="3"/>
-        <v>0.74722240000000006</v>
+      <c r="B26" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75347249999999999</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D26:AG26)</f>
         <v>0.77777799999999997</v>
       </c>
       <c r="D26" s="29">
@@ -19419,12 +19416,12 @@
       <c r="A27" s="22">
         <v>7</v>
       </c>
-      <c r="B27" s="5">
-        <f t="shared" si="3"/>
-        <v>0.61574059999999997</v>
+      <c r="B27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.65046274999999998</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D27:AG27)</f>
         <v>0.72685200000000005</v>
       </c>
       <c r="D27" s="29">
@@ -19450,12 +19447,12 @@
       <c r="A28" s="22">
         <v>8</v>
       </c>
-      <c r="B28" s="5">
-        <f t="shared" si="3"/>
-        <v>0.80833319999999986</v>
+      <c r="B28" s="3">
+        <f t="shared" si="2"/>
+        <v>0.82523124999999997</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D28:AG28)</f>
         <v>0.87036999999999998</v>
       </c>
       <c r="D28" s="29">
@@ -19481,12 +19478,12 @@
       <c r="A29" s="22">
         <v>9</v>
       </c>
-      <c r="B29" s="7">
-        <f t="shared" si="3"/>
-        <v>0.84537039999999986</v>
+      <c r="B29" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85532399999999997</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="4"/>
+        <f>MAX(D29:AG29)</f>
         <v>0.87036999999999998</v>
       </c>
       <c r="D29" s="29">
@@ -19512,53 +19509,53 @@
       <c r="A30" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="22">
-        <f>AVERAGE(B21:B29)</f>
-        <v>0.65864197777777778</v>
-      </c>
-      <c r="C30" s="22">
+      <c r="B30" s="3">
+        <f>AVERAGE(E30:H30)</f>
+        <v>0.67766197222222224</v>
+      </c>
+      <c r="C30" s="35">
         <f>AVERAGE(C21:C29)</f>
         <v>0.74768511111111113</v>
       </c>
       <c r="D30" s="29">
-        <f t="shared" ref="D30:K30" si="5">AVERAGE(D21:D29)</f>
+        <f t="shared" ref="D30:K30" si="3">AVERAGE(D21:D29)</f>
         <v>0.58256200000000002</v>
       </c>
       <c r="E30" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.69058622222222221</v>
       </c>
       <c r="F30" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.63966055555555557</v>
       </c>
       <c r="G30" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.68158422222222237</v>
       </c>
       <c r="H30" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.69881688888888904</v>
       </c>
       <c r="I30" s="29" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="29" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="29" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
@@ -19576,11 +19573,11 @@
         <v>1</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" ref="B36:B44" si="6">AVERAGE(D36:AG36)</f>
-        <v>0.77361139999999995</v>
+        <f>AVERAGE(E36:AG36)</f>
+        <v>0.78038225000000006</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" ref="C36:C44" si="7">MAX(D36:AG36)</f>
+        <f>MAX(D36:AG36)</f>
         <v>0.83680600000000005</v>
       </c>
       <c r="D36" s="29">
@@ -19606,12 +19603,12 @@
       <c r="A37" s="22">
         <v>2</v>
       </c>
-      <c r="B37" s="5">
-        <f t="shared" si="6"/>
-        <v>0.52986120000000003</v>
+      <c r="B37" s="3">
+        <f t="shared" ref="B37:B44" si="4">AVERAGE(E37:AG37)</f>
+        <v>0.54166674999999997</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D37:AG37)</f>
         <v>0.60416700000000001</v>
       </c>
       <c r="D37" s="29">
@@ -19637,12 +19634,12 @@
       <c r="A38" s="22">
         <v>3</v>
       </c>
-      <c r="B38" s="5">
-        <f t="shared" si="6"/>
-        <v>0.89236099999999996</v>
+      <c r="B38" s="3">
+        <f t="shared" si="4"/>
+        <v>0.89670125000000001</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D38:AG38)</f>
         <v>0.9375</v>
       </c>
       <c r="D38" s="29">
@@ -19668,12 +19665,12 @@
       <c r="A39" s="22">
         <v>4</v>
       </c>
-      <c r="B39" s="5">
-        <f t="shared" si="6"/>
-        <v>0.56249980000000011</v>
+      <c r="B39" s="3">
+        <f t="shared" si="4"/>
+        <v>0.58463525000000005</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D39:AG39)</f>
         <v>0.640625</v>
       </c>
       <c r="D39" s="29">
@@ -19699,12 +19696,12 @@
       <c r="A40" s="22">
         <v>5</v>
       </c>
-      <c r="B40" s="5">
-        <f t="shared" si="6"/>
-        <v>0.70069439999999994</v>
+      <c r="B40" s="3">
+        <f t="shared" si="4"/>
+        <v>0.69184024999999993</v>
       </c>
       <c r="C40" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D40:AG40)</f>
         <v>0.75</v>
       </c>
       <c r="D40" s="29">
@@ -19730,12 +19727,12 @@
       <c r="A41" s="22">
         <v>6</v>
       </c>
-      <c r="B41" s="5">
-        <f t="shared" si="6"/>
-        <v>0.81111080000000002</v>
+      <c r="B41" s="3">
+        <f t="shared" si="4"/>
+        <v>0.82118025000000006</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D41:AG41)</f>
         <v>0.83333299999999999</v>
       </c>
       <c r="D41" s="29">
@@ -19761,12 +19758,12 @@
       <c r="A42" s="22">
         <v>7</v>
       </c>
-      <c r="B42" s="5">
-        <f t="shared" si="6"/>
-        <v>0.7180552</v>
+      <c r="B42" s="3">
+        <f t="shared" si="4"/>
+        <v>0.72395799999999999</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D42:AG42)</f>
         <v>0.77083299999999999</v>
       </c>
       <c r="D42" s="29">
@@ -19792,12 +19789,12 @@
       <c r="A43" s="22">
         <v>8</v>
       </c>
-      <c r="B43" s="5">
-        <f t="shared" si="6"/>
-        <v>0.86111120000000008</v>
+      <c r="B43" s="3">
+        <f t="shared" si="4"/>
+        <v>0.86979175000000009</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D43:AG43)</f>
         <v>0.90277799999999997</v>
       </c>
       <c r="D43" s="29">
@@ -19823,12 +19820,12 @@
       <c r="A44" s="22">
         <v>9</v>
       </c>
-      <c r="B44" s="7">
-        <f t="shared" si="6"/>
-        <v>0.89236120000000008</v>
+      <c r="B44" s="3">
+        <f t="shared" si="4"/>
+        <v>0.89670150000000004</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="7"/>
+        <f>MAX(D44:AG44)</f>
         <v>0.90277799999999997</v>
       </c>
       <c r="D44" s="29">
@@ -19854,53 +19851,53 @@
       <c r="A45" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="22">
-        <f>AVERAGE(B36:B44)</f>
-        <v>0.74907402222222219</v>
-      </c>
-      <c r="C45" s="22">
+      <c r="B45" s="3">
+        <f>AVERAGE(E45:H45)</f>
+        <v>0.75631747222222212</v>
+      </c>
+      <c r="C45" s="35">
         <f>AVERAGE(C36:C44)</f>
         <v>0.79764666666666661</v>
       </c>
       <c r="D45" s="29">
-        <f t="shared" ref="D45:K45" si="8">AVERAGE(D36:D44)</f>
+        <f t="shared" ref="D45:K45" si="5">AVERAGE(D36:D44)</f>
         <v>0.72010022222222214</v>
       </c>
       <c r="E45" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.76793977777777778</v>
       </c>
       <c r="F45" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.72974533333333336</v>
       </c>
       <c r="G45" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.76118822222222216</v>
       </c>
       <c r="H45" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.76639655555555541</v>
       </c>
       <c r="I45" s="29" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J45" s="29" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="29" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
@@ -19918,11 +19915,11 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" ref="B49:B57" si="9">AVERAGE(D49:AG49)</f>
-        <v>0.6981482</v>
+        <f>AVERAGE(E49:AG49)</f>
+        <v>0.70717600000000003</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" ref="C49:C57" si="10">MAX(D49:AG49)</f>
+        <f>MAX(D49:AG49)</f>
         <v>0.78240699999999996</v>
       </c>
       <c r="D49" s="29">
@@ -19948,12 +19945,12 @@
       <c r="A50" s="22">
         <v>2</v>
       </c>
-      <c r="B50" s="5">
-        <f t="shared" si="9"/>
-        <v>0.37314799999999998</v>
+      <c r="B50" s="3">
+        <f t="shared" ref="B50:B57" si="6">AVERAGE(E50:AG50)</f>
+        <v>0.38888875000000001</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D50:AG50)</f>
         <v>0.47222199999999998</v>
       </c>
       <c r="D50" s="29">
@@ -19979,12 +19976,12 @@
       <c r="A51" s="22">
         <v>3</v>
       </c>
-      <c r="B51" s="5">
-        <f t="shared" si="9"/>
-        <v>0.85648140000000006</v>
+      <c r="B51" s="3">
+        <f t="shared" si="6"/>
+        <v>0.86226849999999988</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D51:AG51)</f>
         <v>0.91666700000000001</v>
       </c>
       <c r="D51" s="29">
@@ -20010,12 +20007,12 @@
       <c r="A52" s="22">
         <v>4</v>
       </c>
-      <c r="B52" s="5">
-        <f t="shared" si="9"/>
-        <v>0.41666639999999999</v>
+      <c r="B52" s="3">
+        <f t="shared" si="6"/>
+        <v>0.44618025000000006</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D52:AG52)</f>
         <v>0.52083299999999999</v>
       </c>
       <c r="D52" s="29">
@@ -20041,12 +20038,12 @@
       <c r="A53" s="22">
         <v>5</v>
       </c>
-      <c r="B53" s="5">
-        <f t="shared" si="9"/>
-        <v>0.60092600000000007</v>
+      <c r="B53" s="3">
+        <f t="shared" si="6"/>
+        <v>0.58912050000000005</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D53:AG53)</f>
         <v>0.66666700000000001</v>
       </c>
       <c r="D53" s="29">
@@ -20072,12 +20069,12 @@
       <c r="A54" s="22">
         <v>6</v>
       </c>
-      <c r="B54" s="5">
-        <f t="shared" si="9"/>
-        <v>0.74814819999999993</v>
+      <c r="B54" s="3">
+        <f t="shared" si="6"/>
+        <v>0.76157425000000001</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D54:AG54)</f>
         <v>0.77777799999999997</v>
       </c>
       <c r="D54" s="29">
@@ -20103,12 +20100,12 @@
       <c r="A55" s="22">
         <v>7</v>
       </c>
-      <c r="B55" s="5">
-        <f t="shared" si="9"/>
-        <v>0.62407400000000002</v>
+      <c r="B55" s="3">
+        <f t="shared" si="6"/>
+        <v>0.63194424999999999</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D55:AG55)</f>
         <v>0.69444399999999995</v>
       </c>
       <c r="D55" s="29">
@@ -20134,12 +20131,12 @@
       <c r="A56" s="22">
         <v>8</v>
       </c>
-      <c r="B56" s="5">
-        <f t="shared" si="9"/>
-        <v>0.81481480000000006</v>
+      <c r="B56" s="3">
+        <f t="shared" si="6"/>
+        <v>0.82638875000000001</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D56:AG56)</f>
         <v>0.87036999999999998</v>
       </c>
       <c r="D56" s="29">
@@ -20165,12 +20162,12 @@
       <c r="A57" s="22">
         <v>9</v>
       </c>
-      <c r="B57" s="7">
-        <f t="shared" si="9"/>
-        <v>0.85648139999999984</v>
+      <c r="B57" s="3">
+        <f t="shared" si="6"/>
+        <v>0.86226849999999999</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="10"/>
+        <f>MAX(D57:AG57)</f>
         <v>0.87036999999999998</v>
       </c>
       <c r="D57" s="29">
@@ -20196,54 +20193,54 @@
       <c r="A58" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="22">
-        <f>AVERAGE(B49:B57)</f>
-        <v>0.66543204444444448</v>
-      </c>
-      <c r="C58" s="22">
+      <c r="B58" s="3">
+        <f>AVERAGE(E58:H58)</f>
+        <v>0.67508997222222222</v>
+      </c>
+      <c r="C58" s="35">
         <f>AVERAGE(C49:C57)</f>
         <v>0.73019533333333331</v>
       </c>
       <c r="D58" s="29">
-        <f t="shared" ref="D58:K58" si="11">AVERAGE(D49:D57)</f>
+        <f t="shared" ref="D58:K58" si="7">AVERAGE(D49:D57)</f>
         <v>0.62680033333333318</v>
       </c>
       <c r="E58" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0.69058622222222221</v>
       </c>
       <c r="F58" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0.63966055555555557</v>
       </c>
       <c r="G58" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0.68158422222222237</v>
       </c>
       <c r="H58" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>0.68852888888888886</v>
       </c>
       <c r="I58" s="29" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J58" s="29" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="29" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
@@ -20689,21 +20686,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074179C5-60BD-487A-A7CA-804BEDBF222E}">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" activeCellId="1" sqref="B8:B17 B36:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" style="29" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="29"/>
-    <col min="4" max="19" width="11.6640625" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="29"/>
+    <col min="4" max="18" width="11.6640625" style="29" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
@@ -20746,13 +20743,10 @@
       <c r="P1" s="12">
         <v>1E-3</v>
       </c>
-      <c r="Q1" s="12">
-        <v>1E-3</v>
-      </c>
+      <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -20795,16 +20789,13 @@
       <c r="P2" s="29">
         <v>500</v>
       </c>
-      <c r="Q2" s="29">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="30" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" s="30" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>11</v>
@@ -20842,11 +20833,8 @@
       <c r="P3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="30" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" s="30" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>14</v>
       </c>
@@ -20863,7 +20851,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I4" s="30" t="s">
         <v>25</v>
@@ -20889,38 +20877,32 @@
       <c r="P4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="30" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-    </row>
-    <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+    </row>
+    <row r="5" spans="1:18" s="30" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
@@ -20931,578 +20913,547 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <f>AVERAGE(D8:AJ8)</f>
-        <v>0.77653764285714288</v>
+        <f>AVERAGE(D8:AI8)</f>
+        <v>0.78979692307692317</v>
       </c>
       <c r="C8" s="4">
-        <f>MAX(D8:AJ8)</f>
+        <f>MAX(D8:AI8)</f>
         <v>0.83333299999999999</v>
       </c>
       <c r="D8" s="29">
-        <v>0.60416700000000001</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="E8" s="29">
-        <v>0.81944399999999995</v>
+        <v>0.78819399999999995</v>
       </c>
       <c r="F8" s="29">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.79513900000000004</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.76041700000000001</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="J8" s="29">
         <v>0.78819399999999995</v>
       </c>
-      <c r="G8" s="29">
-        <v>0.82638900000000004</v>
-      </c>
-      <c r="H8" s="29">
+      <c r="K8" s="29">
+        <v>0.8125</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0.73958299999999999</v>
+      </c>
+      <c r="O8" s="29">
         <v>0.79513900000000004</v>
       </c>
-      <c r="I8" s="29">
-        <v>0.76041700000000001</v>
-      </c>
-      <c r="J8" s="29">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="K8" s="29">
-        <v>0.78819399999999995</v>
-      </c>
-      <c r="L8" s="29">
-        <v>0.8125</v>
-      </c>
-      <c r="M8" s="29">
-        <v>0.80555600000000005</v>
-      </c>
-      <c r="N8" s="29">
-        <v>0.80902799999999997</v>
-      </c>
-      <c r="O8" s="29">
-        <v>0.73958299999999999</v>
-      </c>
       <c r="P8" s="29">
-        <v>0.79513900000000004</v>
-      </c>
-      <c r="Q8" s="29">
         <v>0.69444399999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>2</v>
       </c>
       <c r="B9" s="5">
-        <f t="shared" ref="B9:B16" si="0">AVERAGE(D9:AJ9)</f>
-        <v>0.58630942857142865</v>
+        <f>AVERAGE(D9:AI9)</f>
+        <v>0.59615376923076924</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" ref="C9:C16" si="1">MAX(D9:AJ9)</f>
+        <f>MAX(D9:AI9)</f>
         <v>0.75347200000000003</v>
       </c>
       <c r="D9" s="29">
-        <v>0.45833299999999999</v>
+        <v>0.67708299999999999</v>
       </c>
       <c r="E9" s="29">
-        <v>0.67708299999999999</v>
+        <v>0.61458299999999999</v>
       </c>
       <c r="F9" s="29">
-        <v>0.61458299999999999</v>
+        <v>0.75347200000000003</v>
       </c>
       <c r="G9" s="29">
-        <v>0.75347200000000003</v>
+        <v>0.5625</v>
       </c>
       <c r="H9" s="29">
-        <v>0.5625</v>
+        <v>0.53472200000000003</v>
       </c>
       <c r="I9" s="29">
-        <v>0.53472200000000003</v>
+        <v>0.68402799999999997</v>
       </c>
       <c r="J9" s="29">
-        <v>0.68402799999999997</v>
+        <v>0.51041700000000001</v>
       </c>
       <c r="K9" s="29">
-        <v>0.51041700000000001</v>
+        <v>0.54513900000000004</v>
       </c>
       <c r="L9" s="29">
-        <v>0.54513900000000004</v>
+        <v>0.56597200000000003</v>
       </c>
       <c r="M9" s="29">
-        <v>0.56597200000000003</v>
+        <v>0.70486099999999996</v>
       </c>
       <c r="N9" s="29">
-        <v>0.70486099999999996</v>
+        <v>0.51736099999999996</v>
       </c>
       <c r="O9" s="29">
-        <v>0.51736099999999996</v>
+        <v>0.65625</v>
       </c>
       <c r="P9" s="29">
-        <v>0.65625</v>
-      </c>
-      <c r="Q9" s="29">
         <v>0.42361100000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>3</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.86979171428571445</v>
+        <f>AVERAGE(D10:AI10)</f>
+        <v>0.87045946153846165</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D10:AI10)</f>
         <v>0.91666700000000001</v>
       </c>
       <c r="D10" s="29">
-        <v>0.86111099999999996</v>
+        <v>0.875</v>
       </c>
       <c r="E10" s="29">
-        <v>0.875</v>
+        <v>0.82291700000000001</v>
       </c>
       <c r="F10" s="29">
-        <v>0.82291700000000001</v>
+        <v>0.87152799999999997</v>
       </c>
       <c r="G10" s="29">
-        <v>0.87152799999999997</v>
+        <v>0.87847200000000003</v>
       </c>
       <c r="H10" s="29">
+        <v>0.91666700000000001</v>
+      </c>
+      <c r="I10" s="29">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="J10" s="29">
         <v>0.87847200000000003</v>
-      </c>
-      <c r="I10" s="29">
-        <v>0.91666700000000001</v>
-      </c>
-      <c r="J10" s="29">
-        <v>0.88194399999999995</v>
       </c>
       <c r="K10" s="29">
         <v>0.87847200000000003</v>
       </c>
       <c r="L10" s="29">
-        <v>0.87847200000000003</v>
+        <v>0.84375</v>
       </c>
       <c r="M10" s="29">
-        <v>0.84375</v>
+        <v>0.84027799999999997</v>
       </c>
       <c r="N10" s="29">
-        <v>0.84027799999999997</v>
+        <v>0.88541700000000001</v>
       </c>
       <c r="O10" s="29">
         <v>0.88541700000000001</v>
       </c>
       <c r="P10" s="29">
-        <v>0.88541700000000001</v>
-      </c>
-      <c r="Q10" s="29">
         <v>0.85763900000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>4</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.55803585714285719</v>
+        <f>AVERAGE(D11:AI11)</f>
+        <v>0.57011230769230781</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D11:AI11)</f>
         <v>0.734375</v>
       </c>
       <c r="D11" s="29">
-        <v>0.40104200000000001</v>
+        <v>0.69791700000000001</v>
       </c>
       <c r="E11" s="29">
-        <v>0.69791700000000001</v>
+        <v>0.56770799999999999</v>
       </c>
       <c r="F11" s="29">
-        <v>0.56770799999999999</v>
+        <v>0.71354200000000001</v>
       </c>
       <c r="G11" s="29">
-        <v>0.71354200000000001</v>
+        <v>0.40625</v>
       </c>
       <c r="H11" s="29">
-        <v>0.40625</v>
+        <v>0.58333299999999999</v>
       </c>
       <c r="I11" s="29">
-        <v>0.58333299999999999</v>
+        <v>0.57291700000000001</v>
       </c>
       <c r="J11" s="29">
         <v>0.57291700000000001</v>
       </c>
       <c r="K11" s="29">
-        <v>0.57291700000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="L11" s="29">
-        <v>0.4375</v>
+        <v>0.65104200000000001</v>
       </c>
       <c r="M11" s="29">
-        <v>0.65104200000000001</v>
+        <v>0.734375</v>
       </c>
       <c r="N11" s="29">
-        <v>0.734375</v>
+        <v>0.49479200000000001</v>
       </c>
       <c r="O11" s="29">
-        <v>0.49479200000000001</v>
+        <v>0.53125</v>
       </c>
       <c r="P11" s="29">
-        <v>0.53125</v>
-      </c>
-      <c r="Q11" s="29">
         <v>0.44791700000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>5</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.73288685714285706</v>
+        <f>AVERAGE(D12:AI12)</f>
+        <v>0.74759607692307695</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D12:AI12)</f>
         <v>0.82291700000000001</v>
       </c>
       <c r="D12" s="29">
-        <v>0.54166700000000001</v>
+        <v>0.77083299999999999</v>
       </c>
       <c r="E12" s="29">
-        <v>0.77083299999999999</v>
+        <v>0.76736099999999996</v>
       </c>
       <c r="F12" s="29">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="H12" s="29">
         <v>0.76736099999999996</v>
       </c>
-      <c r="G12" s="29">
-        <v>0.82291700000000001</v>
-      </c>
-      <c r="H12" s="29">
-        <v>0.72916700000000001</v>
-      </c>
       <c r="I12" s="29">
-        <v>0.76736099999999996</v>
+        <v>0.76388900000000004</v>
       </c>
       <c r="J12" s="29">
-        <v>0.76388900000000004</v>
+        <v>0.75694399999999995</v>
       </c>
       <c r="K12" s="29">
-        <v>0.75694399999999995</v>
+        <v>0.70138900000000004</v>
       </c>
       <c r="L12" s="29">
-        <v>0.70138900000000004</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="M12" s="29">
-        <v>0.81944399999999995</v>
+        <v>0.8125</v>
       </c>
       <c r="N12" s="29">
-        <v>0.8125</v>
+        <v>0.64583299999999999</v>
       </c>
       <c r="O12" s="29">
-        <v>0.64583299999999999</v>
+        <v>0.78472200000000003</v>
       </c>
       <c r="P12" s="29">
-        <v>0.78472200000000003</v>
-      </c>
-      <c r="Q12" s="29">
         <v>0.57638900000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>6</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.80877992857142866</v>
+        <f>AVERAGE(D13:AI13)</f>
+        <v>0.81009630769230789</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D13:AI13)</f>
         <v>0.84375</v>
       </c>
       <c r="D13" s="29">
+        <v>0.82986099999999996</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.79513900000000004</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0.84375</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.79513900000000004</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="J13" s="29">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0.82291700000000001</v>
+      </c>
+      <c r="M13" s="29">
         <v>0.79166700000000001</v>
       </c>
-      <c r="E13" s="29">
-        <v>0.82986099999999996</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="N13" s="29">
+        <v>0.81597200000000003</v>
+      </c>
+      <c r="O13" s="29">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="P13" s="29">
         <v>0.79513900000000004</v>
       </c>
-      <c r="G13" s="29">
-        <v>0.84375</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0.77777799999999997</v>
-      </c>
-      <c r="I13" s="29">
-        <v>0.79513900000000004</v>
-      </c>
-      <c r="J13" s="29">
-        <v>0.82638900000000004</v>
-      </c>
-      <c r="K13" s="29">
-        <v>0.80555600000000005</v>
-      </c>
-      <c r="L13" s="29">
-        <v>0.84027799999999997</v>
-      </c>
-      <c r="M13" s="29">
-        <v>0.82291700000000001</v>
-      </c>
-      <c r="N13" s="29">
-        <v>0.79166700000000001</v>
-      </c>
-      <c r="O13" s="29">
-        <v>0.81597200000000003</v>
-      </c>
-      <c r="P13" s="29">
-        <v>0.79166700000000001</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>0.79513900000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>7</v>
       </c>
       <c r="B14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.75917664285714292</v>
+        <f>AVERAGE(D14:AI14)</f>
+        <v>0.77590815384615397</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D14:AI14)</f>
         <v>0.86805600000000005</v>
       </c>
       <c r="D14" s="29">
-        <v>0.54166700000000001</v>
+        <v>0.81597200000000003</v>
       </c>
       <c r="E14" s="29">
-        <v>0.81597200000000003</v>
+        <v>0.8125</v>
       </c>
       <c r="F14" s="29">
-        <v>0.8125</v>
+        <v>0.86805600000000005</v>
       </c>
       <c r="G14" s="29">
-        <v>0.86805600000000005</v>
+        <v>0.77430600000000005</v>
       </c>
       <c r="H14" s="29">
-        <v>0.77430600000000005</v>
+        <v>0.76388900000000004</v>
       </c>
       <c r="I14" s="29">
-        <v>0.76388900000000004</v>
+        <v>0.82986099999999996</v>
       </c>
       <c r="J14" s="29">
-        <v>0.82986099999999996</v>
+        <v>0.82291700000000001</v>
       </c>
       <c r="K14" s="29">
-        <v>0.82291700000000001</v>
+        <v>0.71527799999999997</v>
       </c>
       <c r="L14" s="29">
-        <v>0.71527799999999997</v>
+        <v>0.80208299999999999</v>
       </c>
       <c r="M14" s="29">
-        <v>0.80208299999999999</v>
+        <v>0.84027799999999997</v>
       </c>
       <c r="N14" s="29">
-        <v>0.84027799999999997</v>
+        <v>0.66319399999999995</v>
       </c>
       <c r="O14" s="29">
-        <v>0.66319399999999995</v>
+        <v>0.80902799999999997</v>
       </c>
       <c r="P14" s="29">
-        <v>0.80902799999999997</v>
-      </c>
-      <c r="Q14" s="29">
         <v>0.56944399999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>8</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.8613590714285716</v>
+        <f>AVERAGE(D15:AI15)</f>
+        <v>0.86351492307692324</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="1"/>
+        <f>MAX(D15:AI15)</f>
         <v>0.90277799999999997</v>
       </c>
       <c r="D15" s="29">
-        <v>0.83333299999999999</v>
+        <v>0.875</v>
       </c>
       <c r="E15" s="29">
-        <v>0.875</v>
+        <v>0.84375</v>
       </c>
       <c r="F15" s="29">
-        <v>0.84375</v>
+        <v>0.86805600000000005</v>
       </c>
       <c r="G15" s="29">
-        <v>0.86805600000000005</v>
+        <v>0.86458299999999999</v>
       </c>
       <c r="H15" s="29">
-        <v>0.86458299999999999</v>
+        <v>0.90277799999999997</v>
       </c>
       <c r="I15" s="29">
-        <v>0.90277799999999997</v>
+        <v>0.86111099999999996</v>
       </c>
       <c r="J15" s="29">
         <v>0.86111099999999996</v>
       </c>
       <c r="K15" s="29">
-        <v>0.86111099999999996</v>
+        <v>0.80902799999999997</v>
       </c>
       <c r="L15" s="29">
-        <v>0.80902799999999997</v>
+        <v>0.85069399999999995</v>
       </c>
       <c r="M15" s="29">
-        <v>0.85069399999999995</v>
+        <v>0.875</v>
       </c>
       <c r="N15" s="29">
         <v>0.875</v>
       </c>
       <c r="O15" s="29">
-        <v>0.875</v>
+        <v>0.88194399999999995</v>
       </c>
       <c r="P15" s="29">
-        <v>0.88194399999999995</v>
-      </c>
-      <c r="Q15" s="29">
         <v>0.85763900000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>9</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="0"/>
-        <v>0.89012892857142856</v>
+        <f>AVERAGE(D16:AI16)</f>
+        <v>0.89289523076923072</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="1"/>
+        <f>MAX(D16:AI16)</f>
         <v>0.92361099999999996</v>
       </c>
       <c r="D16" s="29">
-        <v>0.85416700000000001</v>
+        <v>0.88194399999999995</v>
       </c>
       <c r="E16" s="29">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="G16" s="29">
         <v>0.88194399999999995</v>
       </c>
-      <c r="F16" s="29">
-        <v>0.86458299999999999</v>
-      </c>
-      <c r="G16" s="29">
-        <v>0.89930600000000005</v>
-      </c>
       <c r="H16" s="29">
-        <v>0.88194399999999995</v>
+        <v>0.92361099999999996</v>
       </c>
       <c r="I16" s="29">
-        <v>0.92361099999999996</v>
+        <v>0.90277799999999997</v>
       </c>
       <c r="J16" s="29">
-        <v>0.90277799999999997</v>
+        <v>0.90625</v>
       </c>
       <c r="K16" s="29">
         <v>0.90625</v>
       </c>
       <c r="L16" s="29">
-        <v>0.90625</v>
+        <v>0.87152799999999997</v>
       </c>
       <c r="M16" s="29">
-        <v>0.87152799999999997</v>
+        <v>0.89583299999999999</v>
       </c>
       <c r="N16" s="29">
-        <v>0.89583299999999999</v>
+        <v>0.90972200000000003</v>
       </c>
       <c r="O16" s="29">
-        <v>0.90972200000000003</v>
+        <v>0.88541700000000001</v>
       </c>
       <c r="P16" s="29">
-        <v>0.88541700000000001</v>
-      </c>
-      <c r="Q16" s="29">
         <v>0.87847200000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="29">
         <f>AVERAGE(B8:B16)</f>
-        <v>0.76033400793650796</v>
+        <v>0.7685036837606839</v>
       </c>
       <c r="C17" s="29">
         <f>AVERAGE(C8:C16)</f>
         <v>0.84432877777777771</v>
       </c>
       <c r="D17" s="29">
-        <f t="shared" ref="D17:Q17" si="2">AVERAGE(D8:D16)</f>
-        <v>0.65412822222222222</v>
+        <f t="shared" ref="D17:P17" si="0">AVERAGE(D8:D16)</f>
+        <v>0.80478377777777776</v>
       </c>
       <c r="E17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.80478377777777776</v>
+        <f t="shared" si="0"/>
+        <v>0.76408166666666655</v>
       </c>
       <c r="F17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.76408166666666655</v>
+        <f t="shared" si="0"/>
+        <v>0.82966844444444443</v>
       </c>
       <c r="G17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.82966844444444443</v>
+        <f t="shared" si="0"/>
+        <v>0.74112655555555551</v>
       </c>
       <c r="H17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.74112655555555551</v>
+        <f t="shared" si="0"/>
+        <v>0.77199077777777769</v>
       </c>
       <c r="I17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.77199077777777769</v>
+        <f t="shared" si="0"/>
+        <v>0.79513888888888884</v>
       </c>
       <c r="J17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.79513888888888884</v>
+        <f t="shared" si="0"/>
+        <v>0.76697533333333334</v>
       </c>
       <c r="K17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.76697533333333334</v>
+        <f t="shared" si="0"/>
+        <v>0.73842599999999992</v>
       </c>
       <c r="L17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.73842599999999992</v>
+        <f t="shared" si="0"/>
+        <v>0.7814428888888888</v>
       </c>
       <c r="M17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.7814428888888888</v>
+        <f t="shared" si="0"/>
+        <v>0.81153555555555545</v>
       </c>
       <c r="N17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.81153555555555545</v>
+        <f t="shared" si="0"/>
+        <v>0.72743044444444438</v>
       </c>
       <c r="O17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.72743044444444438</v>
+        <f t="shared" si="0"/>
+        <v>0.78009266666666666</v>
       </c>
       <c r="P17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.78009266666666666</v>
-      </c>
-      <c r="Q17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.6778548888888889</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>0</v>
       </c>
@@ -21513,578 +21464,547 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <f>AVERAGE(D21:AJ21)</f>
-        <v>0.70205042857142863</v>
+        <f>AVERAGE(D21:AI21)</f>
+        <v>0.71972953846153864</v>
       </c>
       <c r="C21" s="4">
-        <f>MAX(D21:AJ21)</f>
+        <f>MAX(D21:AI21)</f>
         <v>0.77777799999999997</v>
       </c>
       <c r="D21" s="29">
-        <v>0.47222199999999998</v>
+        <v>0.75925900000000002</v>
       </c>
       <c r="E21" s="29">
-        <v>0.75925900000000002</v>
+        <v>0.71759300000000004</v>
       </c>
       <c r="F21" s="29">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="G21" s="29">
+        <v>0.72685200000000005</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0.68055600000000005</v>
+      </c>
+      <c r="I21" s="29">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="J21" s="29">
         <v>0.71759300000000004</v>
       </c>
-      <c r="G21" s="29">
-        <v>0.76851899999999995</v>
-      </c>
-      <c r="H21" s="29">
+      <c r="K21" s="29">
+        <v>0.75</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="M21" s="29">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="N21" s="29">
+        <v>0.65277799999999997</v>
+      </c>
+      <c r="O21" s="29">
         <v>0.72685200000000005</v>
       </c>
-      <c r="I21" s="29">
-        <v>0.68055600000000005</v>
-      </c>
-      <c r="J21" s="29">
-        <v>0.77777799999999997</v>
-      </c>
-      <c r="K21" s="29">
-        <v>0.71759300000000004</v>
-      </c>
-      <c r="L21" s="29">
-        <v>0.75</v>
-      </c>
-      <c r="M21" s="29">
-        <v>0.74074099999999998</v>
-      </c>
-      <c r="N21" s="29">
-        <v>0.74536999999999998</v>
-      </c>
-      <c r="O21" s="29">
-        <v>0.65277799999999997</v>
-      </c>
       <c r="P21" s="29">
-        <v>0.72685200000000005</v>
-      </c>
-      <c r="Q21" s="29">
         <v>0.59259300000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <v>2</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" ref="B22:B29" si="3">AVERAGE(D22:AJ22)</f>
-        <v>0.44841264285714288</v>
+        <f>AVERAGE(D22:AI22)</f>
+        <v>0.46153838461538454</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" ref="C22:C29" si="4">MAX(D22:AJ22)</f>
+        <f>MAX(D22:AI22)</f>
         <v>0.671296</v>
       </c>
       <c r="D22" s="29">
-        <v>0.27777800000000002</v>
+        <v>0.56944399999999995</v>
       </c>
       <c r="E22" s="29">
-        <v>0.56944399999999995</v>
+        <v>0.48611100000000002</v>
       </c>
       <c r="F22" s="29">
-        <v>0.48611100000000002</v>
+        <v>0.671296</v>
       </c>
       <c r="G22" s="29">
-        <v>0.671296</v>
+        <v>0.41666700000000001</v>
       </c>
       <c r="H22" s="29">
-        <v>0.41666700000000001</v>
+        <v>0.37963000000000002</v>
       </c>
       <c r="I22" s="29">
-        <v>0.37963000000000002</v>
+        <v>0.578704</v>
       </c>
       <c r="J22" s="29">
-        <v>0.578704</v>
+        <v>0.34722199999999998</v>
       </c>
       <c r="K22" s="29">
-        <v>0.34722199999999998</v>
+        <v>0.39351900000000001</v>
       </c>
       <c r="L22" s="29">
-        <v>0.39351900000000001</v>
+        <v>0.421296</v>
       </c>
       <c r="M22" s="29">
-        <v>0.421296</v>
+        <v>0.60648100000000005</v>
       </c>
       <c r="N22" s="29">
-        <v>0.60648100000000005</v>
+        <v>0.35648099999999999</v>
       </c>
       <c r="O22" s="29">
-        <v>0.35648099999999999</v>
+        <v>0.54166700000000001</v>
       </c>
       <c r="P22" s="29">
-        <v>0.54166700000000001</v>
-      </c>
-      <c r="Q22" s="29">
         <v>0.23148099999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <v>3</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="3"/>
-        <v>0.82638892857142865</v>
+        <f>AVERAGE(D23:AI23)</f>
+        <v>0.82727923076923093</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D23:AI23)</f>
         <v>0.88888900000000004</v>
       </c>
       <c r="D23" s="29">
-        <v>0.81481499999999996</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="E23" s="29">
-        <v>0.83333299999999999</v>
+        <v>0.76388900000000004</v>
       </c>
       <c r="F23" s="29">
-        <v>0.76388900000000004</v>
+        <v>0.828704</v>
       </c>
       <c r="G23" s="29">
-        <v>0.828704</v>
+        <v>0.83796300000000001</v>
       </c>
       <c r="H23" s="29">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="I23" s="29">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="J23" s="29">
         <v>0.83796300000000001</v>
-      </c>
-      <c r="I23" s="29">
-        <v>0.88888900000000004</v>
-      </c>
-      <c r="J23" s="29">
-        <v>0.84259300000000004</v>
       </c>
       <c r="K23" s="29">
         <v>0.83796300000000001</v>
       </c>
       <c r="L23" s="29">
-        <v>0.83796300000000001</v>
+        <v>0.79166700000000001</v>
       </c>
       <c r="M23" s="29">
-        <v>0.79166700000000001</v>
+        <v>0.78703699999999999</v>
       </c>
       <c r="N23" s="29">
-        <v>0.78703699999999999</v>
+        <v>0.84722200000000003</v>
       </c>
       <c r="O23" s="29">
         <v>0.84722200000000003</v>
       </c>
       <c r="P23" s="29">
-        <v>0.84722200000000003</v>
-      </c>
-      <c r="Q23" s="29">
         <v>0.81018500000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>4</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.4107142857142857</v>
+        <f>AVERAGE(D24:AI24)</f>
+        <v>0.42681623076923081</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D24:AI24)</f>
         <v>0.64583299999999999</v>
       </c>
       <c r="D24" s="29">
-        <v>0.20138900000000001</v>
+        <v>0.59722200000000003</v>
       </c>
       <c r="E24" s="29">
-        <v>0.59722200000000003</v>
+        <v>0.42361100000000002</v>
       </c>
       <c r="F24" s="29">
-        <v>0.42361100000000002</v>
+        <v>0.61805600000000005</v>
       </c>
       <c r="G24" s="29">
-        <v>0.61805600000000005</v>
+        <v>0.20833299999999999</v>
       </c>
       <c r="H24" s="29">
-        <v>0.20833299999999999</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="I24" s="29">
-        <v>0.44444400000000001</v>
+        <v>0.43055599999999999</v>
       </c>
       <c r="J24" s="29">
         <v>0.43055599999999999</v>
       </c>
       <c r="K24" s="29">
-        <v>0.43055599999999999</v>
+        <v>0.25</v>
       </c>
       <c r="L24" s="29">
-        <v>0.25</v>
+        <v>0.53472200000000003</v>
       </c>
       <c r="M24" s="29">
-        <v>0.53472200000000003</v>
+        <v>0.64583299999999999</v>
       </c>
       <c r="N24" s="29">
-        <v>0.64583299999999999</v>
+        <v>0.32638899999999998</v>
       </c>
       <c r="O24" s="29">
-        <v>0.32638899999999998</v>
+        <v>0.375</v>
       </c>
       <c r="P24" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="Q24" s="29">
         <v>0.26388899999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>5</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" si="3"/>
-        <v>0.64384921428571418</v>
+        <f>AVERAGE(D25:AI25)</f>
+        <v>0.66346153846153844</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D25:AI25)</f>
         <v>0.76388900000000004</v>
       </c>
       <c r="D25" s="29">
-        <v>0.38888899999999998</v>
+        <v>0.69444399999999995</v>
       </c>
       <c r="E25" s="29">
-        <v>0.69444399999999995</v>
+        <v>0.68981499999999996</v>
       </c>
       <c r="F25" s="29">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="G25" s="29">
+        <v>0.63888900000000004</v>
+      </c>
+      <c r="H25" s="29">
         <v>0.68981499999999996</v>
       </c>
-      <c r="G25" s="29">
-        <v>0.76388900000000004</v>
-      </c>
-      <c r="H25" s="29">
-        <v>0.63888900000000004</v>
-      </c>
       <c r="I25" s="29">
-        <v>0.68981499999999996</v>
+        <v>0.68518500000000004</v>
       </c>
       <c r="J25" s="29">
-        <v>0.68518500000000004</v>
+        <v>0.67592600000000003</v>
       </c>
       <c r="K25" s="29">
-        <v>0.67592600000000003</v>
+        <v>0.60185200000000005</v>
       </c>
       <c r="L25" s="29">
-        <v>0.60185200000000005</v>
+        <v>0.75925900000000002</v>
       </c>
       <c r="M25" s="29">
-        <v>0.75925900000000002</v>
+        <v>0.75</v>
       </c>
       <c r="N25" s="29">
-        <v>0.75</v>
+        <v>0.52777799999999997</v>
       </c>
       <c r="O25" s="29">
-        <v>0.52777799999999997</v>
+        <v>0.71296300000000001</v>
       </c>
       <c r="P25" s="29">
-        <v>0.71296300000000001</v>
-      </c>
-      <c r="Q25" s="29">
         <v>0.43518499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>6</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" si="3"/>
-        <v>0.74503978571428575</v>
+        <f>AVERAGE(D26:AI26)</f>
+        <v>0.7467950000000001</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D26:AI26)</f>
         <v>0.79166700000000001</v>
       </c>
       <c r="D26" s="29">
+        <v>0.77314799999999995</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0.72685200000000005</v>
+      </c>
+      <c r="F26" s="29">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="G26" s="29">
+        <v>0.703704</v>
+      </c>
+      <c r="H26" s="29">
+        <v>0.72685200000000005</v>
+      </c>
+      <c r="I26" s="29">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="J26" s="29">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="K26" s="29">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0.76388900000000004</v>
+      </c>
+      <c r="M26" s="29">
         <v>0.72222200000000003</v>
       </c>
-      <c r="E26" s="29">
-        <v>0.77314799999999995</v>
-      </c>
-      <c r="F26" s="29">
+      <c r="N26" s="29">
+        <v>0.75463000000000002</v>
+      </c>
+      <c r="O26" s="29">
+        <v>0.72222200000000003</v>
+      </c>
+      <c r="P26" s="29">
         <v>0.72685200000000005</v>
       </c>
-      <c r="G26" s="29">
-        <v>0.79166700000000001</v>
-      </c>
-      <c r="H26" s="29">
-        <v>0.703704</v>
-      </c>
-      <c r="I26" s="29">
-        <v>0.72685200000000005</v>
-      </c>
-      <c r="J26" s="29">
-        <v>0.76851899999999995</v>
-      </c>
-      <c r="K26" s="29">
-        <v>0.74074099999999998</v>
-      </c>
-      <c r="L26" s="29">
-        <v>0.78703699999999999</v>
-      </c>
-      <c r="M26" s="29">
-        <v>0.76388900000000004</v>
-      </c>
-      <c r="N26" s="29">
-        <v>0.72222200000000003</v>
-      </c>
-      <c r="O26" s="29">
-        <v>0.75463000000000002</v>
-      </c>
-      <c r="P26" s="29">
-        <v>0.72222200000000003</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>0.72685200000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>7</v>
       </c>
       <c r="B27" s="5">
-        <f t="shared" si="3"/>
-        <v>0.6789020714285714</v>
+        <f>AVERAGE(D27:AI27)</f>
+        <v>0.7012107692307693</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D27:AI27)</f>
         <v>0.82407399999999997</v>
       </c>
       <c r="D27" s="29">
-        <v>0.38888899999999998</v>
+        <v>0.75463000000000002</v>
       </c>
       <c r="E27" s="29">
-        <v>0.75463000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="F27" s="29">
-        <v>0.75</v>
+        <v>0.82407399999999997</v>
       </c>
       <c r="G27" s="29">
-        <v>0.82407399999999997</v>
+        <v>0.69907399999999997</v>
       </c>
       <c r="H27" s="29">
-        <v>0.69907399999999997</v>
+        <v>0.68518500000000004</v>
       </c>
       <c r="I27" s="29">
-        <v>0.68518500000000004</v>
+        <v>0.77314799999999995</v>
       </c>
       <c r="J27" s="29">
-        <v>0.77314799999999995</v>
+        <v>0.76388900000000004</v>
       </c>
       <c r="K27" s="29">
-        <v>0.76388900000000004</v>
+        <v>0.62036999999999998</v>
       </c>
       <c r="L27" s="29">
-        <v>0.62036999999999998</v>
+        <v>0.73611099999999996</v>
       </c>
       <c r="M27" s="29">
-        <v>0.73611099999999996</v>
+        <v>0.78703699999999999</v>
       </c>
       <c r="N27" s="29">
-        <v>0.78703699999999999</v>
+        <v>0.55092600000000003</v>
       </c>
       <c r="O27" s="29">
-        <v>0.55092600000000003</v>
+        <v>0.74536999999999998</v>
       </c>
       <c r="P27" s="29">
-        <v>0.74536999999999998</v>
-      </c>
-      <c r="Q27" s="29">
         <v>0.42592600000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>8</v>
       </c>
       <c r="B28" s="5">
-        <f t="shared" si="3"/>
-        <v>0.81514542857142869</v>
+        <f>AVERAGE(D28:AI28)</f>
+        <v>0.81801984615384626</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="4"/>
+        <f>MAX(D28:AI28)</f>
         <v>0.87036999999999998</v>
       </c>
       <c r="D28" s="29">
-        <v>0.77777799999999997</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="E28" s="29">
-        <v>0.83333299999999999</v>
+        <v>0.79166700000000001</v>
       </c>
       <c r="F28" s="29">
-        <v>0.79166700000000001</v>
+        <v>0.82407399999999997</v>
       </c>
       <c r="G28" s="29">
-        <v>0.82407399999999997</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="H28" s="29">
-        <v>0.81944399999999995</v>
+        <v>0.87036999999999998</v>
       </c>
       <c r="I28" s="29">
-        <v>0.87036999999999998</v>
+        <v>0.81481499999999996</v>
       </c>
       <c r="J28" s="29">
         <v>0.81481499999999996</v>
       </c>
       <c r="K28" s="29">
-        <v>0.81481499999999996</v>
+        <v>0.74536999999999998</v>
       </c>
       <c r="L28" s="29">
-        <v>0.74536999999999998</v>
+        <v>0.80092600000000003</v>
       </c>
       <c r="M28" s="29">
-        <v>0.80092600000000003</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="N28" s="29">
         <v>0.83333299999999999</v>
       </c>
       <c r="O28" s="29">
-        <v>0.83333299999999999</v>
+        <v>0.84259300000000004</v>
       </c>
       <c r="P28" s="29">
-        <v>0.84259300000000004</v>
-      </c>
-      <c r="Q28" s="29">
         <v>0.81018500000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>9</v>
       </c>
       <c r="B29" s="7">
-        <f t="shared" si="3"/>
-        <v>0.85350535714285714</v>
+        <f>AVERAGE(D29:AI29)</f>
+        <v>0.85719376923076929</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="4"/>
+        <f>MAX(D29:AI29)</f>
         <v>0.89814799999999995</v>
       </c>
       <c r="D29" s="29">
-        <v>0.80555600000000005</v>
+        <v>0.84259300000000004</v>
       </c>
       <c r="E29" s="29">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="F29" s="29">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="G29" s="29">
         <v>0.84259300000000004</v>
       </c>
-      <c r="F29" s="29">
-        <v>0.81944399999999995</v>
-      </c>
-      <c r="G29" s="29">
-        <v>0.86574099999999998</v>
-      </c>
       <c r="H29" s="29">
-        <v>0.84259300000000004</v>
+        <v>0.89814799999999995</v>
       </c>
       <c r="I29" s="29">
-        <v>0.89814799999999995</v>
+        <v>0.87036999999999998</v>
       </c>
       <c r="J29" s="29">
-        <v>0.87036999999999998</v>
+        <v>0.875</v>
       </c>
       <c r="K29" s="29">
         <v>0.875</v>
       </c>
       <c r="L29" s="29">
-        <v>0.875</v>
+        <v>0.828704</v>
       </c>
       <c r="M29" s="29">
-        <v>0.828704</v>
+        <v>0.86111099999999996</v>
       </c>
       <c r="N29" s="29">
-        <v>0.86111099999999996</v>
+        <v>0.87963000000000002</v>
       </c>
       <c r="O29" s="29">
-        <v>0.87963000000000002</v>
+        <v>0.84722200000000003</v>
       </c>
       <c r="P29" s="29">
-        <v>0.84722200000000003</v>
-      </c>
-      <c r="Q29" s="29">
         <v>0.83796300000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="29">
         <f>AVERAGE(B21:B29)</f>
-        <v>0.68044534920634914</v>
+        <v>0.69133825641025648</v>
       </c>
       <c r="C30" s="29">
         <f>AVERAGE(C21:C29)</f>
         <v>0.79243822222222227</v>
       </c>
       <c r="D30" s="29">
-        <f t="shared" ref="D30:Q30" si="5">AVERAGE(D21:D29)</f>
-        <v>0.53883755555555557</v>
+        <f t="shared" ref="D30:P30" si="1">AVERAGE(D21:D29)</f>
+        <v>0.73971177777777763</v>
       </c>
       <c r="E30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.73971177777777763</v>
+        <f t="shared" si="1"/>
+        <v>0.68544244444444447</v>
       </c>
       <c r="F30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.68544244444444447</v>
+        <f t="shared" si="1"/>
+        <v>0.7728911111111112</v>
       </c>
       <c r="G30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.7728911111111112</v>
+        <f t="shared" si="1"/>
+        <v>0.65483544444444441</v>
       </c>
       <c r="H30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.65483544444444441</v>
+        <f t="shared" si="1"/>
+        <v>0.69598766666666667</v>
       </c>
       <c r="I30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.69598766666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.72685200000000005</v>
       </c>
       <c r="J30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.72685200000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.68930055555555558</v>
       </c>
       <c r="K30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.68930055555555558</v>
+        <f t="shared" si="1"/>
+        <v>0.65123455555555554</v>
       </c>
       <c r="L30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.65123455555555554</v>
+        <f t="shared" si="1"/>
+        <v>0.70859055555555572</v>
       </c>
       <c r="M30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.70859055555555572</v>
+        <f t="shared" si="1"/>
+        <v>0.7487137777777777</v>
       </c>
       <c r="N30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.7487137777777777</v>
+        <f t="shared" si="1"/>
+        <v>0.63657411111111106</v>
       </c>
       <c r="O30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.63657411111111106</v>
+        <f t="shared" si="1"/>
+        <v>0.70679011111111112</v>
       </c>
       <c r="P30" s="29">
-        <f t="shared" si="5"/>
-        <v>0.70679011111111112</v>
-      </c>
-      <c r="Q30" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.57047322222222219</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>0</v>
       </c>
@@ -22095,578 +22015,547 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
         <v>1</v>
       </c>
       <c r="B36" s="3">
-        <f>AVERAGE(D36:AJ36)</f>
-        <v>0.78447414285714279</v>
+        <f>AVERAGE(D36:AI36)</f>
+        <v>0.78418800000000011</v>
       </c>
       <c r="C36" s="4">
-        <f>MAX(D36:AJ36)</f>
+        <f>MAX(D36:AI36)</f>
         <v>0.875</v>
       </c>
       <c r="D36" s="29">
-        <v>0.78819399999999995</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="E36" s="29">
-        <v>0.81944399999999995</v>
+        <v>0.85069399999999995</v>
       </c>
       <c r="F36" s="29">
-        <v>0.85069399999999995</v>
+        <v>0.81597200000000003</v>
       </c>
       <c r="G36" s="29">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="H36" s="29">
         <v>0.81597200000000003</v>
       </c>
-      <c r="H36" s="29">
-        <v>0.80902799999999997</v>
-      </c>
       <c r="I36" s="29">
-        <v>0.81597200000000003</v>
+        <v>0.79861099999999996</v>
       </c>
       <c r="J36" s="29">
-        <v>0.79861099999999996</v>
+        <v>0.68055600000000005</v>
       </c>
       <c r="K36" s="29">
-        <v>0.68055600000000005</v>
+        <v>0.875</v>
       </c>
       <c r="L36" s="29">
-        <v>0.875</v>
+        <v>0.71180600000000005</v>
       </c>
       <c r="M36" s="29">
-        <v>0.71180600000000005</v>
+        <v>0.82986099999999996</v>
       </c>
       <c r="N36" s="29">
-        <v>0.82986099999999996</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="O36" s="29">
-        <v>0.77777799999999997</v>
+        <v>0.67708299999999999</v>
       </c>
       <c r="P36" s="29">
-        <v>0.67708299999999999</v>
-      </c>
-      <c r="Q36" s="29">
         <v>0.73263900000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
         <v>2</v>
       </c>
       <c r="B37" s="5">
-        <f t="shared" ref="B37:B44" si="6">AVERAGE(D37:AJ37)</f>
-        <v>0.5657241428571429</v>
+        <f>AVERAGE(D37:AI37)</f>
+        <v>0.56383538461538474</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ref="C37:C44" si="7">MAX(D37:AJ37)</f>
+        <f>MAX(D37:AI37)</f>
         <v>0.72916700000000001</v>
       </c>
       <c r="D37" s="29">
-        <v>0.59027799999999997</v>
+        <v>0.67708299999999999</v>
       </c>
       <c r="E37" s="29">
-        <v>0.67708299999999999</v>
+        <v>0.67361099999999996</v>
       </c>
       <c r="F37" s="29">
-        <v>0.67361099999999996</v>
+        <v>0.64236099999999996</v>
       </c>
       <c r="G37" s="29">
-        <v>0.64236099999999996</v>
+        <v>0.63194399999999995</v>
       </c>
       <c r="H37" s="29">
-        <v>0.63194399999999995</v>
+        <v>0.56944399999999995</v>
       </c>
       <c r="I37" s="29">
-        <v>0.56944399999999995</v>
+        <v>0.59722200000000003</v>
       </c>
       <c r="J37" s="29">
-        <v>0.59722200000000003</v>
+        <v>0.37152800000000002</v>
       </c>
       <c r="K37" s="29">
-        <v>0.37152800000000002</v>
+        <v>0.62847200000000003</v>
       </c>
       <c r="L37" s="29">
-        <v>0.62847200000000003</v>
+        <v>0.44097199999999998</v>
       </c>
       <c r="M37" s="29">
-        <v>0.44097199999999998</v>
+        <v>0.72916700000000001</v>
       </c>
       <c r="N37" s="29">
-        <v>0.72916700000000001</v>
+        <v>0.49305599999999999</v>
       </c>
       <c r="O37" s="29">
-        <v>0.49305599999999999</v>
+        <v>0.41666700000000001</v>
       </c>
       <c r="P37" s="29">
-        <v>0.41666700000000001</v>
-      </c>
-      <c r="Q37" s="29">
         <v>0.45833299999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>3</v>
       </c>
       <c r="B38" s="5">
-        <f t="shared" si="6"/>
-        <v>0.88120035714285727</v>
+        <f>AVERAGE(D38:AI38)</f>
+        <v>0.88167730769230768</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D38:AI38)</f>
         <v>0.92013900000000004</v>
       </c>
       <c r="D38" s="29">
         <v>0.875</v>
       </c>
       <c r="E38" s="29">
-        <v>0.875</v>
+        <v>0.89930600000000005</v>
       </c>
       <c r="F38" s="29">
-        <v>0.89930600000000005</v>
+        <v>0.90277799999999997</v>
       </c>
       <c r="G38" s="29">
-        <v>0.90277799999999997</v>
+        <v>0.86111099999999996</v>
       </c>
       <c r="H38" s="29">
-        <v>0.86111099999999996</v>
+        <v>0.92013900000000004</v>
       </c>
       <c r="I38" s="29">
-        <v>0.92013900000000004</v>
+        <v>0.86805600000000005</v>
       </c>
       <c r="J38" s="29">
-        <v>0.86805600000000005</v>
+        <v>0.88194399999999995</v>
       </c>
       <c r="K38" s="29">
-        <v>0.88194399999999995</v>
+        <v>0.87152799999999997</v>
       </c>
       <c r="L38" s="29">
         <v>0.87152799999999997</v>
       </c>
       <c r="M38" s="29">
-        <v>0.87152799999999997</v>
+        <v>0.88194399999999995</v>
       </c>
       <c r="N38" s="29">
+        <v>0.86458299999999999</v>
+      </c>
+      <c r="O38" s="29">
         <v>0.88194399999999995</v>
-      </c>
-      <c r="O38" s="29">
-        <v>0.86458299999999999</v>
       </c>
       <c r="P38" s="29">
         <v>0.88194399999999995</v>
       </c>
-      <c r="Q38" s="29">
-        <v>0.88194399999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
         <v>4</v>
       </c>
       <c r="B39" s="5">
-        <f t="shared" si="6"/>
-        <v>0.5970982142857143</v>
+        <f>AVERAGE(D39:AI39)</f>
+        <v>0.6025640769230769</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D39:AI39)</f>
         <v>0.72916700000000001</v>
       </c>
       <c r="D39" s="29">
-        <v>0.52604200000000001</v>
+        <v>0.69791700000000001</v>
       </c>
       <c r="E39" s="29">
-        <v>0.69791700000000001</v>
+        <v>0.63020799999999999</v>
       </c>
       <c r="F39" s="29">
-        <v>0.63020799999999999</v>
+        <v>0.55208299999999999</v>
       </c>
       <c r="G39" s="29">
-        <v>0.55208299999999999</v>
+        <v>0.63541700000000001</v>
       </c>
       <c r="H39" s="29">
-        <v>0.63541700000000001</v>
+        <v>0.5625</v>
       </c>
       <c r="I39" s="29">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
       <c r="J39" s="29">
+        <v>0.58333299999999999</v>
+      </c>
+      <c r="K39" s="29">
+        <v>0.56770799999999999</v>
+      </c>
+      <c r="L39" s="29">
         <v>0.59375</v>
       </c>
-      <c r="K39" s="29">
+      <c r="M39" s="29">
+        <v>0.72916700000000001</v>
+      </c>
+      <c r="N39" s="29">
         <v>0.58333299999999999</v>
       </c>
-      <c r="L39" s="29">
-        <v>0.56770799999999999</v>
-      </c>
-      <c r="M39" s="29">
+      <c r="O39" s="29">
+        <v>0.51041700000000001</v>
+      </c>
+      <c r="P39" s="29">
         <v>0.59375</v>
       </c>
-      <c r="N39" s="29">
-        <v>0.72916700000000001</v>
-      </c>
-      <c r="O39" s="29">
-        <v>0.58333299999999999</v>
-      </c>
-      <c r="P39" s="29">
-        <v>0.51041700000000001</v>
-      </c>
-      <c r="Q39" s="29">
-        <v>0.59375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
         <v>5</v>
       </c>
       <c r="B40" s="5">
-        <f t="shared" si="6"/>
-        <v>0.74355164285714281</v>
+        <f>AVERAGE(D40:AI40)</f>
+        <v>0.74358976923076914</v>
       </c>
       <c r="C40" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D40:AI40)</f>
         <v>0.80555600000000005</v>
       </c>
       <c r="D40" s="29">
-        <v>0.74305600000000005</v>
+        <v>0.77083299999999999</v>
       </c>
       <c r="E40" s="29">
+        <v>0.79513900000000004</v>
+      </c>
+      <c r="F40" s="29">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="G40" s="29">
+        <v>0.73958299999999999</v>
+      </c>
+      <c r="H40" s="29">
         <v>0.77083299999999999</v>
       </c>
-      <c r="F40" s="29">
-        <v>0.79513900000000004</v>
-      </c>
-      <c r="G40" s="29">
-        <v>0.80555600000000005</v>
-      </c>
-      <c r="H40" s="29">
-        <v>0.73958299999999999</v>
-      </c>
       <c r="I40" s="29">
-        <v>0.77083299999999999</v>
+        <v>0.78125</v>
       </c>
       <c r="J40" s="29">
-        <v>0.78125</v>
+        <v>0.70138900000000004</v>
       </c>
       <c r="K40" s="29">
-        <v>0.70138900000000004</v>
+        <v>0.76041700000000001</v>
       </c>
       <c r="L40" s="29">
-        <v>0.76041700000000001</v>
+        <v>0.71527799999999997</v>
       </c>
       <c r="M40" s="29">
-        <v>0.71527799999999997</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="N40" s="29">
-        <v>0.77777799999999997</v>
+        <v>0.65625</v>
       </c>
       <c r="O40" s="29">
-        <v>0.65625</v>
+        <v>0.67361099999999996</v>
       </c>
       <c r="P40" s="29">
-        <v>0.67361099999999996</v>
-      </c>
-      <c r="Q40" s="29">
         <v>0.71875</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
         <v>6</v>
       </c>
       <c r="B41" s="5">
-        <f t="shared" si="6"/>
-        <v>0.81522828571428552</v>
+        <f>AVERAGE(D41:AI41)</f>
+        <v>0.817307846153846</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D41:AI41)</f>
         <v>0.86111099999999996</v>
       </c>
       <c r="D41" s="29">
-        <v>0.78819399999999995</v>
+        <v>0.82986099999999996</v>
       </c>
       <c r="E41" s="29">
-        <v>0.82986099999999996</v>
+        <v>0.83680600000000005</v>
       </c>
       <c r="F41" s="29">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="G41" s="29">
+        <v>0.77777799999999997</v>
+      </c>
+      <c r="H41" s="29">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="I41" s="29">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="J41" s="29">
+        <v>0.79513900000000004</v>
+      </c>
+      <c r="K41" s="29">
         <v>0.83680600000000005</v>
       </c>
-      <c r="G41" s="29">
-        <v>0.82638900000000004</v>
-      </c>
-      <c r="H41" s="29">
+      <c r="L41" s="29">
+        <v>0.80208299999999999</v>
+      </c>
+      <c r="M41" s="29">
+        <v>0.80555600000000005</v>
+      </c>
+      <c r="N41" s="29">
+        <v>0.84375</v>
+      </c>
+      <c r="O41" s="29">
         <v>0.77777799999999997</v>
       </c>
-      <c r="I41" s="29">
-        <v>0.82638900000000004</v>
-      </c>
-      <c r="J41" s="29">
-        <v>0.80555600000000005</v>
-      </c>
-      <c r="K41" s="29">
-        <v>0.79513900000000004</v>
-      </c>
-      <c r="L41" s="29">
-        <v>0.83680600000000005</v>
-      </c>
-      <c r="M41" s="29">
-        <v>0.80208299999999999</v>
-      </c>
-      <c r="N41" s="29">
-        <v>0.80555600000000005</v>
-      </c>
-      <c r="O41" s="29">
-        <v>0.84375</v>
-      </c>
       <c r="P41" s="29">
-        <v>0.77777799999999997</v>
-      </c>
-      <c r="Q41" s="29">
         <v>0.86111099999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
         <v>7</v>
       </c>
       <c r="B42" s="5">
-        <f t="shared" si="6"/>
-        <v>0.76884928571428568</v>
+        <f>AVERAGE(D42:AI42)</f>
+        <v>0.76949792307692322</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D42:AI42)</f>
         <v>0.85763900000000004</v>
       </c>
       <c r="D42" s="29">
-        <v>0.76041700000000001</v>
+        <v>0.81597200000000003</v>
       </c>
       <c r="E42" s="29">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="F42" s="29">
+        <v>0.84027799999999997</v>
+      </c>
+      <c r="G42" s="29">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="H42" s="29">
+        <v>0.80902799999999997</v>
+      </c>
+      <c r="I42" s="29">
+        <v>0.75347200000000003</v>
+      </c>
+      <c r="J42" s="29">
+        <v>0.74652799999999997</v>
+      </c>
+      <c r="K42" s="29">
         <v>0.81597200000000003</v>
       </c>
-      <c r="F42" s="29">
-        <v>0.85763900000000004</v>
-      </c>
-      <c r="G42" s="29">
-        <v>0.84027799999999997</v>
-      </c>
-      <c r="H42" s="29">
-        <v>0.82638900000000004</v>
-      </c>
-      <c r="I42" s="29">
-        <v>0.80902799999999997</v>
-      </c>
-      <c r="J42" s="29">
-        <v>0.75347200000000003</v>
-      </c>
-      <c r="K42" s="29">
-        <v>0.74652799999999997</v>
-      </c>
       <c r="L42" s="29">
+        <v>0.61805600000000005</v>
+      </c>
+      <c r="M42" s="29">
         <v>0.81597200000000003</v>
       </c>
-      <c r="M42" s="29">
-        <v>0.61805600000000005</v>
-      </c>
       <c r="N42" s="29">
-        <v>0.81597200000000003</v>
+        <v>0.66319399999999995</v>
       </c>
       <c r="O42" s="29">
-        <v>0.66319399999999995</v>
+        <v>0.71180600000000005</v>
       </c>
       <c r="P42" s="29">
-        <v>0.71180600000000005</v>
-      </c>
-      <c r="Q42" s="29">
         <v>0.72916700000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
         <v>8</v>
       </c>
       <c r="B43" s="5">
-        <f t="shared" si="6"/>
-        <v>0.86532735714285725</v>
+        <f>AVERAGE(D43:AI43)</f>
+        <v>0.86672007692307695</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="7"/>
+        <f>MAX(D43:AI43)</f>
         <v>0.89930600000000005</v>
       </c>
       <c r="D43" s="29">
-        <v>0.84722200000000003</v>
+        <v>0.875</v>
       </c>
       <c r="E43" s="29">
-        <v>0.875</v>
+        <v>0.86458299999999999</v>
       </c>
       <c r="F43" s="29">
+        <v>0.89236099999999996</v>
+      </c>
+      <c r="G43" s="29">
+        <v>0.84375</v>
+      </c>
+      <c r="H43" s="29">
+        <v>0.89930600000000005</v>
+      </c>
+      <c r="I43" s="29">
         <v>0.86458299999999999</v>
       </c>
-      <c r="G43" s="29">
-        <v>0.89236099999999996</v>
-      </c>
-      <c r="H43" s="29">
-        <v>0.84375</v>
-      </c>
-      <c r="I43" s="29">
-        <v>0.89930600000000005</v>
-      </c>
       <c r="J43" s="29">
-        <v>0.86458299999999999</v>
+        <v>0.86805600000000005</v>
       </c>
       <c r="K43" s="29">
+        <v>0.82638900000000004</v>
+      </c>
+      <c r="L43" s="29">
         <v>0.86805600000000005</v>
       </c>
-      <c r="L43" s="29">
-        <v>0.82638900000000004</v>
-      </c>
       <c r="M43" s="29">
-        <v>0.86805600000000005</v>
+        <v>0.88194399999999995</v>
       </c>
       <c r="N43" s="29">
-        <v>0.88194399999999995</v>
+        <v>0.87847200000000003</v>
       </c>
       <c r="O43" s="29">
-        <v>0.87847200000000003</v>
+        <v>0.85069399999999995</v>
       </c>
       <c r="P43" s="29">
-        <v>0.85069399999999995</v>
-      </c>
-      <c r="Q43" s="29">
         <v>0.85416700000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
         <v>9</v>
       </c>
       <c r="B44" s="7">
-        <f t="shared" si="6"/>
-        <v>0.89409714285714281</v>
+        <f>AVERAGE(D44:AI44)</f>
+        <v>0.89423069230769237</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="7"/>
+        <f>MAX(D44:AI44)</f>
         <v>0.93055600000000005</v>
       </c>
       <c r="D44" s="29">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="E44" s="29">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="F44" s="29">
+        <v>0.90277799999999997</v>
+      </c>
+      <c r="G44" s="29">
+        <v>0.85763900000000004</v>
+      </c>
+      <c r="H44" s="29">
+        <v>0.93055600000000005</v>
+      </c>
+      <c r="I44" s="29">
         <v>0.89236099999999996</v>
       </c>
-      <c r="E44" s="29">
+      <c r="J44" s="29">
+        <v>0.90972200000000003</v>
+      </c>
+      <c r="K44" s="29">
         <v>0.88194399999999995</v>
       </c>
-      <c r="F44" s="29">
-        <v>0.90972200000000003</v>
-      </c>
-      <c r="G44" s="29">
-        <v>0.90277799999999997</v>
-      </c>
-      <c r="H44" s="29">
-        <v>0.85763900000000004</v>
-      </c>
-      <c r="I44" s="29">
-        <v>0.93055600000000005</v>
-      </c>
-      <c r="J44" s="29">
-        <v>0.89236099999999996</v>
-      </c>
-      <c r="K44" s="29">
-        <v>0.90972200000000003</v>
-      </c>
       <c r="L44" s="29">
-        <v>0.88194399999999995</v>
+        <v>0.89583299999999999</v>
       </c>
       <c r="M44" s="29">
         <v>0.89583299999999999</v>
       </c>
       <c r="N44" s="29">
-        <v>0.89583299999999999</v>
+        <v>0.90277799999999997</v>
       </c>
       <c r="O44" s="29">
-        <v>0.90277799999999997</v>
+        <v>0.875</v>
       </c>
       <c r="P44" s="29">
-        <v>0.875</v>
-      </c>
-      <c r="Q44" s="29">
         <v>0.88888900000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="29">
         <f>AVERAGE(B36:B44)</f>
-        <v>0.76839450793650788</v>
+        <v>0.76929011965811966</v>
       </c>
       <c r="C45" s="29">
         <f>AVERAGE(C36:C44)</f>
         <v>0.84529344444444443</v>
       </c>
       <c r="D45" s="29">
-        <f t="shared" ref="D45:Q45" si="8">AVERAGE(D36:D44)</f>
-        <v>0.75675155555555562</v>
+        <f t="shared" ref="D45:P45" si="2">AVERAGE(D36:D44)</f>
+        <v>0.80478377777777776</v>
       </c>
       <c r="E45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.80478377777777776</v>
+        <f t="shared" si="2"/>
+        <v>0.81307866666666673</v>
       </c>
       <c r="F45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.81307866666666673</v>
+        <f t="shared" si="2"/>
+        <v>0.79783955555555552</v>
       </c>
       <c r="G45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.79783955555555552</v>
+        <f t="shared" si="2"/>
+        <v>0.77584877777777761</v>
       </c>
       <c r="H45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.77584877777777761</v>
+        <f t="shared" si="2"/>
+        <v>0.78935188888888896</v>
       </c>
       <c r="I45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.78935188888888896</v>
+        <f t="shared" si="2"/>
+        <v>0.77276233333333333</v>
       </c>
       <c r="J45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.77276233333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.72646611111111115</v>
       </c>
       <c r="K45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.72646611111111115</v>
+        <f t="shared" si="2"/>
+        <v>0.78491511111111112</v>
       </c>
       <c r="L45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.78491511111111112</v>
+        <f t="shared" si="2"/>
+        <v>0.72415133333333337</v>
       </c>
       <c r="M45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.72415133333333337</v>
+        <f t="shared" si="2"/>
+        <v>0.81635799999999992</v>
       </c>
       <c r="N45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.81635799999999992</v>
+        <f t="shared" si="2"/>
+        <v>0.7403548888888889</v>
       </c>
       <c r="O45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.7403548888888889</v>
+        <f t="shared" si="2"/>
+        <v>0.70833333333333326</v>
       </c>
       <c r="P45" s="29">
-        <f t="shared" si="8"/>
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="Q45" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.74652777777777779</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>0</v>
       </c>
@@ -22677,887 +22566,855 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <f>AVERAGE(D49:AJ49)</f>
-        <v>0.71263228571428583</v>
+        <f>AVERAGE(D49:AI49)</f>
+        <v>0.71225069230769222</v>
       </c>
       <c r="C49" s="4">
-        <f>MAX(D49:AJ49)</f>
+        <f>MAX(D49:AI49)</f>
         <v>0.83333299999999999</v>
       </c>
       <c r="D49" s="29">
-        <v>0.71759300000000004</v>
+        <v>0.75925900000000002</v>
       </c>
       <c r="E49" s="29">
-        <v>0.75925900000000002</v>
+        <v>0.80092600000000003</v>
       </c>
       <c r="F49" s="29">
-        <v>0.80092600000000003</v>
+        <v>0.75463000000000002</v>
       </c>
       <c r="G49" s="29">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="H49" s="29">
         <v>0.75463000000000002</v>
       </c>
-      <c r="H49" s="29">
-        <v>0.74536999999999998</v>
-      </c>
       <c r="I49" s="29">
-        <v>0.75463000000000002</v>
+        <v>0.73148100000000005</v>
       </c>
       <c r="J49" s="29">
-        <v>0.73148100000000005</v>
+        <v>0.57407399999999997</v>
       </c>
       <c r="K49" s="29">
-        <v>0.57407399999999997</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="L49" s="29">
-        <v>0.83333299999999999</v>
+        <v>0.61574099999999998</v>
       </c>
       <c r="M49" s="29">
-        <v>0.61574099999999998</v>
+        <v>0.77314799999999995</v>
       </c>
       <c r="N49" s="29">
-        <v>0.77314799999999995</v>
+        <v>0.703704</v>
       </c>
       <c r="O49" s="29">
-        <v>0.703704</v>
+        <v>0.56944399999999995</v>
       </c>
       <c r="P49" s="29">
-        <v>0.56944399999999995</v>
-      </c>
-      <c r="Q49" s="29">
         <v>0.64351899999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
         <v>2</v>
       </c>
       <c r="B50" s="5">
-        <f t="shared" ref="B50:B57" si="9">AVERAGE(D50:AJ50)</f>
-        <v>0.42096564285714283</v>
+        <f>AVERAGE(D50:AI50)</f>
+        <v>0.41844730769230765</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" ref="C50:C57" si="10">MAX(D50:AJ50)</f>
+        <f>MAX(D50:AI50)</f>
         <v>0.63888900000000004</v>
       </c>
       <c r="D50" s="29">
-        <v>0.453704</v>
+        <v>0.56944399999999995</v>
       </c>
       <c r="E50" s="29">
-        <v>0.56944399999999995</v>
+        <v>0.56481499999999996</v>
       </c>
       <c r="F50" s="29">
-        <v>0.56481499999999996</v>
+        <v>0.52314799999999995</v>
       </c>
       <c r="G50" s="29">
-        <v>0.52314799999999995</v>
+        <v>0.50925900000000002</v>
       </c>
       <c r="H50" s="29">
-        <v>0.50925900000000002</v>
+        <v>0.42592600000000003</v>
       </c>
       <c r="I50" s="29">
-        <v>0.42592600000000003</v>
+        <v>0.46296300000000001</v>
       </c>
       <c r="J50" s="29">
-        <v>0.46296300000000001</v>
+        <v>0.16203699999999999</v>
       </c>
       <c r="K50" s="29">
-        <v>0.16203699999999999</v>
+        <v>0.50463000000000002</v>
       </c>
       <c r="L50" s="29">
-        <v>0.50463000000000002</v>
+        <v>0.25463000000000002</v>
       </c>
       <c r="M50" s="29">
-        <v>0.25463000000000002</v>
+        <v>0.63888900000000004</v>
       </c>
       <c r="N50" s="29">
-        <v>0.63888900000000004</v>
+        <v>0.32407399999999997</v>
       </c>
       <c r="O50" s="29">
-        <v>0.32407399999999997</v>
+        <v>0.222222</v>
       </c>
       <c r="P50" s="29">
-        <v>0.222222</v>
-      </c>
-      <c r="Q50" s="29">
         <v>0.27777800000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
         <v>3</v>
       </c>
       <c r="B51" s="5">
-        <f t="shared" si="9"/>
-        <v>0.84160064285714298</v>
+        <f>AVERAGE(D51:AI51)</f>
+        <v>0.84223661538461547</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D51:AI51)</f>
         <v>0.89351899999999995</v>
       </c>
       <c r="D51" s="29">
         <v>0.83333299999999999</v>
       </c>
       <c r="E51" s="29">
-        <v>0.83333299999999999</v>
+        <v>0.86574099999999998</v>
       </c>
       <c r="F51" s="29">
-        <v>0.86574099999999998</v>
+        <v>0.87036999999999998</v>
       </c>
       <c r="G51" s="29">
-        <v>0.87036999999999998</v>
+        <v>0.81481499999999996</v>
       </c>
       <c r="H51" s="29">
-        <v>0.81481499999999996</v>
+        <v>0.89351899999999995</v>
       </c>
       <c r="I51" s="29">
-        <v>0.89351899999999995</v>
+        <v>0.82407399999999997</v>
       </c>
       <c r="J51" s="29">
-        <v>0.82407399999999997</v>
+        <v>0.84259300000000004</v>
       </c>
       <c r="K51" s="29">
-        <v>0.84259300000000004</v>
+        <v>0.828704</v>
       </c>
       <c r="L51" s="29">
         <v>0.828704</v>
       </c>
       <c r="M51" s="29">
-        <v>0.828704</v>
+        <v>0.84259300000000004</v>
       </c>
       <c r="N51" s="29">
+        <v>0.81944399999999995</v>
+      </c>
+      <c r="O51" s="29">
         <v>0.84259300000000004</v>
-      </c>
-      <c r="O51" s="29">
-        <v>0.81944399999999995</v>
       </c>
       <c r="P51" s="29">
         <v>0.84259300000000004</v>
       </c>
-      <c r="Q51" s="29">
-        <v>0.84259300000000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
         <v>4</v>
       </c>
       <c r="B52" s="5">
-        <f t="shared" si="9"/>
-        <v>0.46279749999999992</v>
+        <f>AVERAGE(D52:AI52)</f>
+        <v>0.47008530769230766</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D52:AI52)</f>
         <v>0.63888900000000004</v>
       </c>
       <c r="D52" s="29">
-        <v>0.36805599999999999</v>
+        <v>0.59722200000000003</v>
       </c>
       <c r="E52" s="29">
-        <v>0.59722200000000003</v>
+        <v>0.50694399999999995</v>
       </c>
       <c r="F52" s="29">
-        <v>0.50694399999999995</v>
+        <v>0.40277800000000002</v>
       </c>
       <c r="G52" s="29">
-        <v>0.40277800000000002</v>
+        <v>0.51388900000000004</v>
       </c>
       <c r="H52" s="29">
-        <v>0.51388900000000004</v>
+        <v>0.41666700000000001</v>
       </c>
       <c r="I52" s="29">
-        <v>0.41666700000000001</v>
+        <v>0.45833299999999999</v>
       </c>
       <c r="J52" s="29">
+        <v>0.44444400000000001</v>
+      </c>
+      <c r="K52" s="29">
+        <v>0.42361100000000002</v>
+      </c>
+      <c r="L52" s="29">
         <v>0.45833299999999999</v>
       </c>
-      <c r="K52" s="29">
+      <c r="M52" s="29">
+        <v>0.63888900000000004</v>
+      </c>
+      <c r="N52" s="29">
         <v>0.44444400000000001</v>
       </c>
-      <c r="L52" s="29">
-        <v>0.42361100000000002</v>
-      </c>
-      <c r="M52" s="29">
+      <c r="O52" s="29">
+        <v>0.34722199999999998</v>
+      </c>
+      <c r="P52" s="29">
         <v>0.45833299999999999</v>
       </c>
-      <c r="N52" s="29">
-        <v>0.63888900000000004</v>
-      </c>
-      <c r="O52" s="29">
-        <v>0.44444400000000001</v>
-      </c>
-      <c r="P52" s="29">
-        <v>0.34722199999999998</v>
-      </c>
-      <c r="Q52" s="29">
-        <v>0.45833299999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>5</v>
       </c>
       <c r="B53" s="5">
-        <f t="shared" si="9"/>
-        <v>0.65806878571428573</v>
+        <f>AVERAGE(D53:AI53)</f>
+        <v>0.65811969230769241</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D53:AI53)</f>
         <v>0.74074099999999998</v>
       </c>
       <c r="D53" s="29">
-        <v>0.65740699999999996</v>
+        <v>0.69444399999999995</v>
       </c>
       <c r="E53" s="29">
+        <v>0.72685200000000005</v>
+      </c>
+      <c r="F53" s="29">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="G53" s="29">
+        <v>0.65277799999999997</v>
+      </c>
+      <c r="H53" s="29">
         <v>0.69444399999999995</v>
       </c>
-      <c r="F53" s="29">
-        <v>0.72685200000000005</v>
-      </c>
-      <c r="G53" s="29">
-        <v>0.74074099999999998</v>
-      </c>
-      <c r="H53" s="29">
-        <v>0.65277799999999997</v>
-      </c>
       <c r="I53" s="29">
-        <v>0.69444399999999995</v>
+        <v>0.70833299999999999</v>
       </c>
       <c r="J53" s="29">
-        <v>0.70833299999999999</v>
+        <v>0.60185200000000005</v>
       </c>
       <c r="K53" s="29">
-        <v>0.60185200000000005</v>
+        <v>0.68055600000000005</v>
       </c>
       <c r="L53" s="29">
-        <v>0.68055600000000005</v>
+        <v>0.62036999999999998</v>
       </c>
       <c r="M53" s="29">
-        <v>0.62036999999999998</v>
+        <v>0.703704</v>
       </c>
       <c r="N53" s="29">
-        <v>0.703704</v>
+        <v>0.54166700000000001</v>
       </c>
       <c r="O53" s="29">
-        <v>0.54166700000000001</v>
+        <v>0.56481499999999996</v>
       </c>
       <c r="P53" s="29">
-        <v>0.56481499999999996</v>
-      </c>
-      <c r="Q53" s="29">
         <v>0.625</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>6</v>
       </c>
       <c r="B54" s="5">
-        <f t="shared" si="9"/>
-        <v>0.75363771428571436</v>
+        <f>AVERAGE(D54:AI54)</f>
+        <v>0.75641038461538457</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D54:AI54)</f>
         <v>0.81481499999999996</v>
       </c>
       <c r="D54" s="29">
-        <v>0.71759300000000004</v>
+        <v>0.77314799999999995</v>
       </c>
       <c r="E54" s="29">
-        <v>0.77314799999999995</v>
+        <v>0.78240699999999996</v>
       </c>
       <c r="F54" s="29">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="G54" s="29">
+        <v>0.703704</v>
+      </c>
+      <c r="H54" s="29">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="I54" s="29">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="J54" s="29">
+        <v>0.72685200000000005</v>
+      </c>
+      <c r="K54" s="29">
         <v>0.78240699999999996</v>
       </c>
-      <c r="G54" s="29">
-        <v>0.76851899999999995</v>
-      </c>
-      <c r="H54" s="29">
+      <c r="L54" s="29">
+        <v>0.73611099999999996</v>
+      </c>
+      <c r="M54" s="29">
+        <v>0.74074099999999998</v>
+      </c>
+      <c r="N54" s="29">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="O54" s="29">
         <v>0.703704</v>
       </c>
-      <c r="I54" s="29">
-        <v>0.76851899999999995</v>
-      </c>
-      <c r="J54" s="29">
-        <v>0.74074099999999998</v>
-      </c>
-      <c r="K54" s="29">
-        <v>0.72685200000000005</v>
-      </c>
-      <c r="L54" s="29">
-        <v>0.78240699999999996</v>
-      </c>
-      <c r="M54" s="29">
-        <v>0.73611099999999996</v>
-      </c>
-      <c r="N54" s="29">
-        <v>0.74074099999999998</v>
-      </c>
-      <c r="O54" s="29">
-        <v>0.79166700000000001</v>
-      </c>
       <c r="P54" s="29">
-        <v>0.703704</v>
-      </c>
-      <c r="Q54" s="29">
         <v>0.81481499999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
         <v>7</v>
       </c>
       <c r="B55" s="5">
-        <f t="shared" si="9"/>
-        <v>0.69179907142857133</v>
+        <f>AVERAGE(D55:AI55)</f>
+        <v>0.69266392307692304</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D55:AI55)</f>
         <v>0.81018500000000004</v>
       </c>
       <c r="D55" s="29">
-        <v>0.68055600000000005</v>
+        <v>0.75463000000000002</v>
       </c>
       <c r="E55" s="29">
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="F55" s="29">
+        <v>0.78703699999999999</v>
+      </c>
+      <c r="G55" s="29">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="H55" s="29">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="I55" s="29">
+        <v>0.671296</v>
+      </c>
+      <c r="J55" s="29">
+        <v>0.66203699999999999</v>
+      </c>
+      <c r="K55" s="29">
         <v>0.75463000000000002</v>
       </c>
-      <c r="F55" s="29">
-        <v>0.81018500000000004</v>
-      </c>
-      <c r="G55" s="29">
-        <v>0.78703699999999999</v>
-      </c>
-      <c r="H55" s="29">
-        <v>0.76851899999999995</v>
-      </c>
-      <c r="I55" s="29">
-        <v>0.74536999999999998</v>
-      </c>
-      <c r="J55" s="29">
-        <v>0.671296</v>
-      </c>
-      <c r="K55" s="29">
-        <v>0.66203699999999999</v>
-      </c>
       <c r="L55" s="29">
+        <v>0.49074099999999998</v>
+      </c>
+      <c r="M55" s="29">
         <v>0.75463000000000002</v>
       </c>
-      <c r="M55" s="29">
-        <v>0.49074099999999998</v>
-      </c>
       <c r="N55" s="29">
-        <v>0.75463000000000002</v>
+        <v>0.55092600000000003</v>
       </c>
       <c r="O55" s="29">
-        <v>0.55092600000000003</v>
+        <v>0.61574099999999998</v>
       </c>
       <c r="P55" s="29">
-        <v>0.61574099999999998</v>
-      </c>
-      <c r="Q55" s="29">
         <v>0.63888900000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
         <v>8</v>
       </c>
       <c r="B56" s="5">
-        <f t="shared" si="9"/>
-        <v>0.8204364999999999</v>
+        <f>AVERAGE(D56:AI56)</f>
+        <v>0.8222934615384615</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" si="10"/>
+        <f>MAX(D56:AI56)</f>
         <v>0.86574099999999998</v>
       </c>
       <c r="D56" s="29">
-        <v>0.796296</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="E56" s="29">
-        <v>0.83333299999999999</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="F56" s="29">
+        <v>0.85648100000000005</v>
+      </c>
+      <c r="G56" s="29">
+        <v>0.79166700000000001</v>
+      </c>
+      <c r="H56" s="29">
+        <v>0.86574099999999998</v>
+      </c>
+      <c r="I56" s="29">
         <v>0.81944399999999995</v>
       </c>
-      <c r="G56" s="29">
-        <v>0.85648100000000005</v>
-      </c>
-      <c r="H56" s="29">
-        <v>0.79166700000000001</v>
-      </c>
-      <c r="I56" s="29">
-        <v>0.86574099999999998</v>
-      </c>
       <c r="J56" s="29">
-        <v>0.81944399999999995</v>
+        <v>0.82407399999999997</v>
       </c>
       <c r="K56" s="29">
+        <v>0.76851899999999995</v>
+      </c>
+      <c r="L56" s="29">
         <v>0.82407399999999997</v>
       </c>
-      <c r="L56" s="29">
-        <v>0.76851899999999995</v>
-      </c>
       <c r="M56" s="29">
-        <v>0.82407399999999997</v>
+        <v>0.84259300000000004</v>
       </c>
       <c r="N56" s="29">
-        <v>0.84259300000000004</v>
+        <v>0.83796300000000001</v>
       </c>
       <c r="O56" s="29">
-        <v>0.83796300000000001</v>
+        <v>0.80092600000000003</v>
       </c>
       <c r="P56" s="29">
-        <v>0.80092600000000003</v>
-      </c>
-      <c r="Q56" s="29">
         <v>0.80555600000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
         <v>9</v>
       </c>
       <c r="B57" s="7">
-        <f t="shared" si="9"/>
-        <v>0.85879621428571418</v>
+        <f>AVERAGE(D57:AI57)</f>
+        <v>0.85897430769230765</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="10"/>
+        <f>MAX(D57:AI57)</f>
         <v>0.90740699999999996</v>
       </c>
       <c r="D57" s="29">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="E57" s="29">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="F57" s="29">
+        <v>0.87036999999999998</v>
+      </c>
+      <c r="G57" s="29">
+        <v>0.81018500000000004</v>
+      </c>
+      <c r="H57" s="29">
+        <v>0.90740699999999996</v>
+      </c>
+      <c r="I57" s="29">
         <v>0.85648100000000005</v>
       </c>
-      <c r="E57" s="29">
+      <c r="J57" s="29">
+        <v>0.87963000000000002</v>
+      </c>
+      <c r="K57" s="29">
         <v>0.84259300000000004</v>
       </c>
-      <c r="F57" s="29">
-        <v>0.87963000000000002</v>
-      </c>
-      <c r="G57" s="29">
-        <v>0.87036999999999998</v>
-      </c>
-      <c r="H57" s="29">
-        <v>0.81018500000000004</v>
-      </c>
-      <c r="I57" s="29">
-        <v>0.90740699999999996</v>
-      </c>
-      <c r="J57" s="29">
-        <v>0.85648100000000005</v>
-      </c>
-      <c r="K57" s="29">
-        <v>0.87963000000000002</v>
-      </c>
       <c r="L57" s="29">
-        <v>0.84259300000000004</v>
+        <v>0.86111099999999996</v>
       </c>
       <c r="M57" s="29">
         <v>0.86111099999999996</v>
       </c>
       <c r="N57" s="29">
-        <v>0.86111099999999996</v>
+        <v>0.87036999999999998</v>
       </c>
       <c r="O57" s="29">
-        <v>0.87036999999999998</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="P57" s="29">
-        <v>0.83333299999999999</v>
-      </c>
-      <c r="Q57" s="29">
         <v>0.85185200000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="29">
         <f>AVERAGE(B49:B57)</f>
-        <v>0.69119270634920627</v>
+        <v>0.6923868547008547</v>
       </c>
       <c r="C58" s="29">
         <f>AVERAGE(C49:C57)</f>
         <v>0.79372433333333325</v>
       </c>
       <c r="D58" s="29">
-        <f t="shared" ref="D58:Q58" si="11">AVERAGE(D49:D57)</f>
-        <v>0.67566877777777767</v>
+        <f t="shared" ref="D58:P58" si="3">AVERAGE(D49:D57)</f>
+        <v>0.73971177777777763</v>
       </c>
       <c r="E58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.73971177777777763</v>
+        <f t="shared" si="3"/>
+        <v>0.75077155555555541</v>
       </c>
       <c r="F58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.75077155555555541</v>
+        <f t="shared" si="3"/>
+        <v>0.73045266666666675</v>
       </c>
       <c r="G58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.73045266666666675</v>
+        <f t="shared" si="3"/>
+        <v>0.7011317777777778</v>
       </c>
       <c r="H58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.7011317777777778</v>
+        <f t="shared" si="3"/>
+        <v>0.7191358888888888</v>
       </c>
       <c r="I58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.7191358888888888</v>
+        <f t="shared" si="3"/>
+        <v>0.69701622222222226</v>
       </c>
       <c r="J58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.69701622222222226</v>
+        <f t="shared" si="3"/>
+        <v>0.63528811111111105</v>
       </c>
       <c r="K58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.63528811111111105</v>
+        <f t="shared" si="3"/>
+        <v>0.71322033333333335</v>
       </c>
       <c r="L58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.71322033333333335</v>
+        <f t="shared" si="3"/>
+        <v>0.63220166666666666</v>
       </c>
       <c r="M58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.63220166666666666</v>
+        <f t="shared" si="3"/>
+        <v>0.75514422222222222</v>
       </c>
       <c r="N58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.75514422222222222</v>
+        <f t="shared" si="3"/>
+        <v>0.65380655555555556</v>
       </c>
       <c r="O58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.65380655555555556</v>
+        <f t="shared" si="3"/>
+        <v>0.61111111111111116</v>
       </c>
       <c r="P58" s="29">
-        <f t="shared" si="11"/>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="Q58" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.66203722222222217</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B63" s="36" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="D5:P5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A47:C47"/>
   </mergeCells>
-  <conditionalFormatting sqref="R30:S30">
+  <conditionalFormatting sqref="Q30:R30">
     <cfRule type="top10" dxfId="223" priority="95" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="222" priority="96" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R45:S45">
+  <conditionalFormatting sqref="Q45:R45">
     <cfRule type="top10" dxfId="221" priority="93" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="220" priority="94" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R50:S50">
+  <conditionalFormatting sqref="Q50:R50">
     <cfRule type="top10" dxfId="219" priority="91" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="218" priority="92" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R51:S51">
+  <conditionalFormatting sqref="Q51:R51">
     <cfRule type="top10" dxfId="217" priority="89" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="216" priority="90" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R52:S52">
+  <conditionalFormatting sqref="Q52:R52">
     <cfRule type="top10" dxfId="215" priority="87" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="214" priority="88" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R53:S53">
+  <conditionalFormatting sqref="Q53:R53">
     <cfRule type="top10" dxfId="213" priority="85" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="212" priority="86" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R54:S54">
+  <conditionalFormatting sqref="Q54:R54">
     <cfRule type="top10" dxfId="211" priority="83" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="210" priority="84" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R55:S55">
+  <conditionalFormatting sqref="Q55:R55">
     <cfRule type="top10" dxfId="209" priority="81" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="208" priority="82" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R56:S56">
+  <conditionalFormatting sqref="Q56:R56">
     <cfRule type="top10" dxfId="207" priority="79" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="206" priority="80" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R57:S57">
+  <conditionalFormatting sqref="Q57:R57">
     <cfRule type="top10" dxfId="205" priority="77" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="204" priority="78" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R58:S58">
+  <conditionalFormatting sqref="Q58:R58">
     <cfRule type="top10" dxfId="203" priority="75" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="202" priority="76" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:S8">
+  <conditionalFormatting sqref="Q8:R8">
     <cfRule type="top10" dxfId="201" priority="97" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="200" priority="98" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9:S9">
+  <conditionalFormatting sqref="Q9:R9">
     <cfRule type="top10" dxfId="199" priority="99" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="198" priority="100" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R10:S10">
+  <conditionalFormatting sqref="Q10:R10">
     <cfRule type="top10" dxfId="197" priority="101" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="196" priority="102" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:S11">
+  <conditionalFormatting sqref="Q11:R11">
     <cfRule type="top10" dxfId="195" priority="103" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="194" priority="104" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:S12">
+  <conditionalFormatting sqref="Q12:R12">
     <cfRule type="top10" dxfId="193" priority="105" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="192" priority="106" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R13:S13">
+  <conditionalFormatting sqref="Q13:R13">
     <cfRule type="top10" dxfId="191" priority="107" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="190" priority="108" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14:S14">
+  <conditionalFormatting sqref="Q14:R14">
     <cfRule type="top10" dxfId="189" priority="109" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="188" priority="110" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R15:S15">
+  <conditionalFormatting sqref="Q15:R15">
     <cfRule type="top10" dxfId="187" priority="111" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="186" priority="112" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R16:S16">
+  <conditionalFormatting sqref="Q16:R16">
     <cfRule type="top10" dxfId="185" priority="113" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="184" priority="114" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:S17">
+  <conditionalFormatting sqref="Q17:R17">
     <cfRule type="top10" dxfId="183" priority="115" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="182" priority="116" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R22:S22">
+  <conditionalFormatting sqref="Q22:R22">
     <cfRule type="top10" dxfId="181" priority="117" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="180" priority="118" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R23:S23">
+  <conditionalFormatting sqref="Q23:R23">
     <cfRule type="top10" dxfId="179" priority="119" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="178" priority="120" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R24:S24">
+  <conditionalFormatting sqref="Q24:R24">
     <cfRule type="top10" dxfId="177" priority="121" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="176" priority="122" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R25:S25">
+  <conditionalFormatting sqref="Q25:R25">
     <cfRule type="top10" dxfId="175" priority="123" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="174" priority="124" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26:S26">
+  <conditionalFormatting sqref="Q26:R26">
     <cfRule type="top10" dxfId="173" priority="125" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="172" priority="126" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R27:S27">
+  <conditionalFormatting sqref="Q27:R27">
     <cfRule type="top10" dxfId="171" priority="127" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="170" priority="128" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R28:S28">
+  <conditionalFormatting sqref="Q28:R28">
     <cfRule type="top10" dxfId="169" priority="129" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="168" priority="130" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:S29">
+  <conditionalFormatting sqref="Q29:R29">
     <cfRule type="top10" dxfId="167" priority="131" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="166" priority="132" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R37:S37">
+  <conditionalFormatting sqref="Q37:R37">
     <cfRule type="top10" dxfId="165" priority="133" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="164" priority="134" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R38:S38">
+  <conditionalFormatting sqref="Q38:R38">
     <cfRule type="top10" dxfId="163" priority="135" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="162" priority="136" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R39:S39">
+  <conditionalFormatting sqref="Q39:R39">
     <cfRule type="top10" dxfId="161" priority="137" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="160" priority="138" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:S40">
+  <conditionalFormatting sqref="Q40:R40">
     <cfRule type="top10" dxfId="159" priority="139" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="158" priority="140" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R41:S41">
+  <conditionalFormatting sqref="Q41:R41">
     <cfRule type="top10" dxfId="157" priority="141" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="156" priority="142" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R42:S42">
+  <conditionalFormatting sqref="Q42:R42">
     <cfRule type="top10" dxfId="155" priority="143" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="154" priority="144" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43:S43">
+  <conditionalFormatting sqref="Q43:R43">
     <cfRule type="top10" dxfId="153" priority="145" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="152" priority="146" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R44:S44">
+  <conditionalFormatting sqref="Q44:R44">
     <cfRule type="top10" dxfId="151" priority="147" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="150" priority="148" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:Q36">
-    <cfRule type="top10" dxfId="149" priority="73" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="148" priority="74" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:Q37">
-    <cfRule type="top10" dxfId="147" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="146" priority="72" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:Q38">
-    <cfRule type="top10" dxfId="145" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="144" priority="70" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:Q39">
-    <cfRule type="top10" dxfId="143" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="142" priority="68" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:Q40">
-    <cfRule type="top10" dxfId="141" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="140" priority="66" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:Q41">
-    <cfRule type="top10" dxfId="139" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="138" priority="64" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:Q42">
-    <cfRule type="top10" dxfId="137" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="136" priority="62" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:Q43">
-    <cfRule type="top10" dxfId="135" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="134" priority="60" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:Q44">
-    <cfRule type="top10" dxfId="133" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="132" priority="58" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:Q49">
-    <cfRule type="top10" dxfId="131" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="130" priority="56" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:Q50">
-    <cfRule type="top10" dxfId="129" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="128" priority="54" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:Q51">
-    <cfRule type="top10" dxfId="127" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="126" priority="52" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:Q52">
-    <cfRule type="top10" dxfId="125" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="124" priority="50" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:Q53">
-    <cfRule type="top10" dxfId="123" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="122" priority="48" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:Q54">
-    <cfRule type="top10" dxfId="121" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="120" priority="46" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:Q55">
-    <cfRule type="top10" dxfId="119" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="118" priority="44" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:Q56">
-    <cfRule type="top10" dxfId="117" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="116" priority="42" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:Q57">
-    <cfRule type="top10" dxfId="115" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="114" priority="40" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:Q21">
-    <cfRule type="top10" dxfId="113" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="112" priority="38" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:Q22">
-    <cfRule type="top10" dxfId="111" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="110" priority="36" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:Q23">
-    <cfRule type="top10" dxfId="109" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="108" priority="34" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:Q24">
-    <cfRule type="top10" dxfId="107" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="106" priority="32" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:Q25">
-    <cfRule type="top10" dxfId="105" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="104" priority="30" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:Q26">
-    <cfRule type="top10" dxfId="103" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="102" priority="28" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:Q27">
-    <cfRule type="top10" dxfId="101" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="100" priority="26" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:Q28">
-    <cfRule type="top10" dxfId="99" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="98" priority="24" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:Q29">
-    <cfRule type="top10" dxfId="97" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="96" priority="22" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:Q8">
-    <cfRule type="top10" dxfId="95" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="94" priority="20" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:Q9">
-    <cfRule type="top10" dxfId="93" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="92" priority="18" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:Q10">
-    <cfRule type="top10" dxfId="91" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="90" priority="16" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:Q11">
-    <cfRule type="top10" dxfId="89" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="88" priority="14" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:Q12">
-    <cfRule type="top10" dxfId="87" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="86" priority="12" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:Q13">
-    <cfRule type="top10" dxfId="85" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="84" priority="10" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:Q14">
-    <cfRule type="top10" dxfId="83" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="82" priority="8" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:Q15">
-    <cfRule type="top10" dxfId="81" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="80" priority="6" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:Q16">
-    <cfRule type="top10" dxfId="79" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="78" priority="4" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:Q17">
-    <cfRule type="top10" dxfId="77" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="76" priority="2" rank="2"/>
+  <conditionalFormatting sqref="D36:P36">
+    <cfRule type="top10" dxfId="149" priority="847" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="148" priority="848" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:P37">
+    <cfRule type="top10" dxfId="147" priority="849" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="146" priority="850" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:P38">
+    <cfRule type="top10" dxfId="145" priority="851" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="144" priority="852" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:P39">
+    <cfRule type="top10" dxfId="143" priority="853" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="142" priority="854" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:P40">
+    <cfRule type="top10" dxfId="141" priority="855" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="140" priority="856" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:P41">
+    <cfRule type="top10" dxfId="139" priority="857" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="138" priority="858" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:P42">
+    <cfRule type="top10" dxfId="137" priority="859" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="136" priority="860" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:P43">
+    <cfRule type="top10" dxfId="135" priority="861" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="134" priority="862" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:P44">
+    <cfRule type="top10" dxfId="133" priority="863" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="132" priority="864" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:P49">
+    <cfRule type="top10" dxfId="131" priority="865" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="130" priority="866" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:P50">
+    <cfRule type="top10" dxfId="129" priority="867" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="128" priority="868" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:P51">
+    <cfRule type="top10" dxfId="127" priority="869" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="126" priority="870" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:P52">
+    <cfRule type="top10" dxfId="125" priority="871" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="124" priority="872" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:P53">
+    <cfRule type="top10" dxfId="123" priority="873" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="122" priority="874" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:P54">
+    <cfRule type="top10" dxfId="121" priority="875" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="120" priority="876" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:P55">
+    <cfRule type="top10" dxfId="119" priority="877" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="118" priority="878" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:P56">
+    <cfRule type="top10" dxfId="117" priority="879" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="116" priority="880" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:P57">
+    <cfRule type="top10" dxfId="115" priority="881" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="114" priority="882" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:P21">
+    <cfRule type="top10" dxfId="113" priority="883" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="112" priority="884" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:P22">
+    <cfRule type="top10" dxfId="111" priority="885" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="110" priority="886" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:P23">
+    <cfRule type="top10" dxfId="109" priority="887" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="108" priority="888" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:P24">
+    <cfRule type="top10" dxfId="107" priority="889" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="106" priority="890" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:P25">
+    <cfRule type="top10" dxfId="105" priority="891" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="104" priority="892" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:P26">
+    <cfRule type="top10" dxfId="103" priority="893" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="102" priority="894" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:P27">
+    <cfRule type="top10" dxfId="101" priority="895" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="100" priority="896" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:P28">
+    <cfRule type="top10" dxfId="99" priority="897" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="98" priority="898" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:P29">
+    <cfRule type="top10" dxfId="97" priority="899" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="96" priority="900" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:P8">
+    <cfRule type="top10" dxfId="95" priority="901" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="94" priority="902" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:P9">
+    <cfRule type="top10" dxfId="93" priority="903" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="92" priority="904" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:P10">
+    <cfRule type="top10" dxfId="91" priority="905" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="90" priority="906" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:P11">
+    <cfRule type="top10" dxfId="89" priority="907" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="88" priority="908" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:P12">
+    <cfRule type="top10" dxfId="87" priority="909" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="86" priority="910" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:P13">
+    <cfRule type="top10" dxfId="85" priority="911" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="84" priority="912" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:P14">
+    <cfRule type="top10" dxfId="83" priority="913" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="82" priority="914" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:P15">
+    <cfRule type="top10" dxfId="81" priority="915" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="80" priority="916" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:P16">
+    <cfRule type="top10" dxfId="79" priority="917" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="78" priority="918" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:P17">
+    <cfRule type="top10" dxfId="77" priority="919" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="76" priority="920" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23565,21 +23422,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0AF600-1D0C-43BD-94A2-1F3930266D1C}">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8:U17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" activeCellId="1" sqref="B8:B17 B36:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" style="24" customWidth="1"/>
     <col min="2" max="3" width="8.88671875" style="24"/>
-    <col min="4" max="18" width="11.6640625" style="24" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="24"/>
+    <col min="4" max="16" width="11.6640625" style="24" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
@@ -23614,10 +23471,10 @@
         <v>1E-3</v>
       </c>
       <c r="N1" s="12">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="O1" s="12">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="P1" s="12">
         <v>1E-3</v>
@@ -23628,14 +23485,8 @@
       <c r="R1" s="12">
         <v>1E-3</v>
       </c>
-      <c r="S1" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="T1" s="12">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
@@ -23672,10 +23523,10 @@
       <c r="N2" s="29">
         <v>500</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="32">
         <v>500</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="32">
         <v>500</v>
       </c>
       <c r="Q2" s="32">
@@ -23684,14 +23535,8 @@
       <c r="R2" s="32">
         <v>500</v>
       </c>
-      <c r="S2" s="32">
-        <v>500</v>
-      </c>
-      <c r="T2" s="32">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="25" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:19" s="25" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
@@ -23725,11 +23570,13 @@
       <c r="M3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="30" t="s">
+      <c r="N3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="33" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="33" t="s">
@@ -23738,14 +23585,8 @@
       <c r="R3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="25" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:19" s="25" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
@@ -23782,10 +23623,10 @@
       <c r="N4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="33" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="33" t="s">
@@ -23794,54 +23635,46 @@
       <c r="R4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="25" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="37" t="s">
+    </row>
+    <row r="5" spans="1:19" s="25" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="38"/>
+      <c r="O5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="33" t="s">
-        <v>39</v>
+      <c r="P5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="T5" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-    </row>
-    <row r="7" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>0</v>
       </c>
@@ -23852,16 +23685,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <f>AVERAGE(D8:M8,P8:T8)</f>
+        <f>AVERAGE(D8:M8,N8:R8)</f>
         <v>0.7233795999999999</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C16" si="0">MAX(D8:AI8)</f>
+        <f>MAX(D8:AG8)</f>
         <v>0.82986099999999996</v>
       </c>
       <c r="D8" s="32">
@@ -23895,38 +23728,32 @@
         <v>0.77083299999999999</v>
       </c>
       <c r="N8" s="32">
-        <v>0.51388900000000004</v>
+        <v>0.71527799999999997</v>
       </c>
       <c r="O8" s="32">
-        <v>0.53819399999999995</v>
+        <v>0.61805600000000005</v>
       </c>
       <c r="P8" s="32">
-        <v>0.71527799999999997</v>
+        <v>0.82986099999999996</v>
       </c>
       <c r="Q8" s="32">
-        <v>0.61805600000000005</v>
+        <v>0.76041700000000001</v>
       </c>
       <c r="R8" s="32">
-        <v>0.82986099999999996</v>
-      </c>
-      <c r="S8" s="32">
-        <v>0.76041700000000001</v>
-      </c>
-      <c r="T8" s="32">
         <v>0.62847200000000003</v>
       </c>
-      <c r="U8" s="34"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S8" s="34"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>2</v>
       </c>
       <c r="B9" s="5">
-        <f t="shared" ref="B9:B16" si="1">AVERAGE(D9:M9,P9:T9)</f>
+        <f>AVERAGE(D9:M9,N9:R9)</f>
         <v>0.46250000000000002</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="0"/>
+        <f>MAX(D9:AG9)</f>
         <v>0.60763900000000004</v>
       </c>
       <c r="D9" s="32">
@@ -23960,38 +23787,32 @@
         <v>0.59027799999999997</v>
       </c>
       <c r="N9" s="32">
-        <v>0.45833299999999999</v>
+        <v>0.39930599999999999</v>
       </c>
       <c r="O9" s="32">
-        <v>0.54513900000000004</v>
+        <v>0.27777800000000002</v>
       </c>
       <c r="P9" s="32">
-        <v>0.39930599999999999</v>
+        <v>0.52083299999999999</v>
       </c>
       <c r="Q9" s="32">
-        <v>0.27777800000000002</v>
+        <v>0.57638900000000004</v>
       </c>
       <c r="R9" s="32">
-        <v>0.52083299999999999</v>
-      </c>
-      <c r="S9" s="32">
-        <v>0.57638900000000004</v>
-      </c>
-      <c r="T9" s="32">
         <v>0.37847199999999998</v>
       </c>
-      <c r="U9" s="34"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S9" s="34"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>3</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D10:M10,N10:R10)</f>
         <v>0.86736106666666679</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="0"/>
+        <f>MAX(D10:AG10)</f>
         <v>0.92013900000000004</v>
       </c>
       <c r="D10" s="32">
@@ -24025,38 +23846,32 @@
         <v>0.90625</v>
       </c>
       <c r="N10" s="32">
-        <v>0.73611099999999996</v>
+        <v>0.89583299999999999</v>
       </c>
       <c r="O10" s="32">
-        <v>0.66319399999999995</v>
+        <v>0.92013900000000004</v>
       </c>
       <c r="P10" s="32">
+        <v>0.88194399999999995</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>0.88541700000000001</v>
+      </c>
+      <c r="R10" s="32">
         <v>0.89583299999999999</v>
       </c>
-      <c r="Q10" s="32">
-        <v>0.92013900000000004</v>
-      </c>
-      <c r="R10" s="32">
-        <v>0.88194399999999995</v>
-      </c>
-      <c r="S10" s="32">
-        <v>0.88541700000000001</v>
-      </c>
-      <c r="T10" s="32">
-        <v>0.89583299999999999</v>
-      </c>
-      <c r="U10" s="34"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S10" s="34"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>4</v>
       </c>
       <c r="B11" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D11:M11,N11:R11)</f>
         <v>0.55416673333333344</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="0"/>
+        <f>MAX(D11:AG11)</f>
         <v>0.78125</v>
       </c>
       <c r="D11" s="32">
@@ -24090,38 +23905,32 @@
         <v>0.55729200000000001</v>
       </c>
       <c r="N11" s="32">
-        <v>0.41145799999999999</v>
+        <v>0.54166700000000001</v>
       </c>
       <c r="O11" s="32">
-        <v>0.46875</v>
+        <v>0.50520799999999999</v>
       </c>
       <c r="P11" s="32">
-        <v>0.54166700000000001</v>
+        <v>0.78125</v>
       </c>
       <c r="Q11" s="32">
-        <v>0.50520799999999999</v>
+        <v>0.65104200000000001</v>
       </c>
       <c r="R11" s="32">
-        <v>0.78125</v>
-      </c>
-      <c r="S11" s="32">
-        <v>0.65104200000000001</v>
-      </c>
-      <c r="T11" s="32">
         <v>0.546875</v>
       </c>
-      <c r="U11" s="34"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S11" s="34"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>5</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D12:M12,N12:R12)</f>
         <v>0.65046293333333327</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="0"/>
+        <f>MAX(D12:AG12)</f>
         <v>0.79166700000000001</v>
       </c>
       <c r="D12" s="32">
@@ -24155,38 +23964,32 @@
         <v>0.78125</v>
       </c>
       <c r="N12" s="32">
-        <v>0.5625</v>
+        <v>0.67708299999999999</v>
       </c>
       <c r="O12" s="32">
-        <v>0.73263900000000004</v>
+        <v>0.45138899999999998</v>
       </c>
       <c r="P12" s="32">
-        <v>0.67708299999999999</v>
+        <v>0.63888900000000004</v>
       </c>
       <c r="Q12" s="32">
-        <v>0.45138899999999998</v>
+        <v>0.71875</v>
       </c>
       <c r="R12" s="32">
-        <v>0.63888900000000004</v>
-      </c>
-      <c r="S12" s="32">
-        <v>0.71875</v>
-      </c>
-      <c r="T12" s="32">
         <v>0.61458299999999999</v>
       </c>
-      <c r="U12" s="34"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>6</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D13:M13,N13:R13)</f>
         <v>0.80254633333333347</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="0"/>
+        <f>MAX(D13:AG13)</f>
         <v>0.85069399999999995</v>
       </c>
       <c r="D13" s="32">
@@ -24220,38 +24023,32 @@
         <v>0.82986099999999996</v>
       </c>
       <c r="N13" s="32">
-        <v>0.66319399999999995</v>
+        <v>0.85069399999999995</v>
       </c>
       <c r="O13" s="32">
-        <v>0.61458299999999999</v>
+        <v>0.78125</v>
       </c>
       <c r="P13" s="32">
-        <v>0.85069399999999995</v>
+        <v>0.83680600000000005</v>
       </c>
       <c r="Q13" s="32">
-        <v>0.78125</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="R13" s="32">
-        <v>0.83680600000000005</v>
-      </c>
-      <c r="S13" s="32">
-        <v>0.81944399999999995</v>
-      </c>
-      <c r="T13" s="32">
         <v>0.78819399999999995</v>
       </c>
-      <c r="U13" s="34"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>7</v>
       </c>
       <c r="B14" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D14:M14,N14:R14)</f>
         <v>0.70046299999999984</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="0"/>
+        <f>MAX(D14:AG14)</f>
         <v>0.80208299999999999</v>
       </c>
       <c r="D14" s="32">
@@ -24285,38 +24082,32 @@
         <v>0.77430600000000005</v>
       </c>
       <c r="N14" s="32">
-        <v>0.53819399999999995</v>
+        <v>0.76041700000000001</v>
       </c>
       <c r="O14" s="32">
-        <v>0.66319399999999995</v>
+        <v>0.46527800000000002</v>
       </c>
       <c r="P14" s="32">
-        <v>0.76041700000000001</v>
+        <v>0.71527799999999997</v>
       </c>
       <c r="Q14" s="32">
-        <v>0.46527800000000002</v>
+        <v>0.80208299999999999</v>
       </c>
       <c r="R14" s="32">
-        <v>0.71527799999999997</v>
-      </c>
-      <c r="S14" s="32">
-        <v>0.80208299999999999</v>
-      </c>
-      <c r="T14" s="32">
         <v>0.61111099999999996</v>
       </c>
-      <c r="U14" s="34"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S14" s="34"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>8</v>
       </c>
       <c r="B15" s="5">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D15:M15,N15:R15)</f>
         <v>0.85601866666666671</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="0"/>
+        <f>MAX(D15:AG15)</f>
         <v>0.90625</v>
       </c>
       <c r="D15" s="32">
@@ -24350,38 +24141,32 @@
         <v>0.84722200000000003</v>
       </c>
       <c r="N15" s="32">
-        <v>0.73958299999999999</v>
+        <v>0.84027799999999997</v>
       </c>
       <c r="O15" s="32">
-        <v>0.67708299999999999</v>
+        <v>0.88541700000000001</v>
       </c>
       <c r="P15" s="32">
-        <v>0.84027799999999997</v>
+        <v>0.86458299999999999</v>
       </c>
       <c r="Q15" s="32">
-        <v>0.88541700000000001</v>
+        <v>0.85763900000000004</v>
       </c>
       <c r="R15" s="32">
-        <v>0.86458299999999999</v>
-      </c>
-      <c r="S15" s="32">
-        <v>0.85763900000000004</v>
-      </c>
-      <c r="T15" s="32">
         <v>0.875</v>
       </c>
-      <c r="U15" s="34"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S15" s="34"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>9</v>
       </c>
       <c r="B16" s="7">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D16:M16,N16:R16)</f>
         <v>0.87638880000000019</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="0"/>
+        <f>MAX(D16:AG16)</f>
         <v>0.92013900000000004</v>
       </c>
       <c r="D16" s="32">
@@ -24415,29 +24200,23 @@
         <v>0.89583299999999999</v>
       </c>
       <c r="N16" s="32">
-        <v>0.76388900000000004</v>
+        <v>0.92013900000000004</v>
       </c>
       <c r="O16" s="32">
-        <v>0.70138900000000004</v>
+        <v>0.91319399999999995</v>
       </c>
       <c r="P16" s="32">
-        <v>0.92013900000000004</v>
+        <v>0.89236099999999996</v>
       </c>
       <c r="Q16" s="32">
-        <v>0.91319399999999995</v>
+        <v>0.88194399999999995</v>
       </c>
       <c r="R16" s="32">
-        <v>0.89236099999999996</v>
-      </c>
-      <c r="S16" s="32">
         <v>0.88194399999999995</v>
       </c>
-      <c r="T16" s="32">
-        <v>0.88194399999999995</v>
-      </c>
-      <c r="U16" s="34"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S16" s="34"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>1</v>
       </c>
@@ -24450,83 +24229,75 @@
         <v>0.82330244444444434</v>
       </c>
       <c r="D17" s="29">
-        <f t="shared" ref="D17:U17" si="2">AVERAGE(D8:D16)</f>
+        <f t="shared" ref="D17:R17" si="0">AVERAGE(D8:D16)</f>
         <v>0.74922844444444447</v>
       </c>
       <c r="E17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.65875777777777789</v>
       </c>
       <c r="F17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.65663577777777782</v>
       </c>
       <c r="G17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.71682111111111124</v>
       </c>
       <c r="H17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.74035499999999999</v>
       </c>
       <c r="I17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.74016211111111119</v>
       </c>
       <c r="J17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.70601844444444439</v>
       </c>
       <c r="K17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.71739955555555557</v>
       </c>
       <c r="L17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.7471066666666667</v>
       </c>
       <c r="M17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.77256944444444442</v>
       </c>
       <c r="N17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.59857233333333326</v>
-      </c>
-      <c r="O17" s="29">
-        <f t="shared" si="2"/>
-        <v>0.62268500000000004</v>
-      </c>
-      <c r="P17" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.73341055555555557</v>
       </c>
+      <c r="O17" s="34">
+        <f t="shared" si="0"/>
+        <v>0.64641211111111108</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="0"/>
+        <v>0.77353388888888874</v>
+      </c>
       <c r="Q17" s="34">
-        <f t="shared" si="2"/>
-        <v>0.64641211111111108</v>
+        <f t="shared" si="0"/>
+        <v>0.77256944444444431</v>
       </c>
       <c r="R17" s="34">
-        <f t="shared" si="2"/>
-        <v>0.77353388888888874</v>
-      </c>
-      <c r="S17" s="34">
-        <f t="shared" si="2"/>
-        <v>0.77256944444444431</v>
-      </c>
-      <c r="T17" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.69116488888888883</v>
       </c>
-      <c r="U17" s="34"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="S17" s="34"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -24537,16 +24308,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <f>AVERAGE(D21:M21,P21:T21)</f>
+        <f>AVERAGE(D21:M21,N21:R21)</f>
         <v>0.63117286666666661</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:C29" si="3">MAX(D21:AI21)</f>
+        <f>MAX(D21:AG21)</f>
         <v>0.77314799999999995</v>
       </c>
       <c r="D21" s="32">
@@ -24580,37 +24351,31 @@
         <v>0.69444399999999995</v>
       </c>
       <c r="N21" s="32">
-        <v>0.351852</v>
+        <v>0.62036999999999998</v>
       </c>
       <c r="O21" s="32">
-        <v>0.38425900000000002</v>
+        <v>0.49074099999999998</v>
       </c>
       <c r="P21" s="32">
-        <v>0.62036999999999998</v>
+        <v>0.77314799999999995</v>
       </c>
       <c r="Q21" s="32">
-        <v>0.49074099999999998</v>
+        <v>0.68055600000000005</v>
       </c>
       <c r="R21" s="32">
-        <v>0.77314799999999995</v>
-      </c>
-      <c r="S21" s="32">
-        <v>0.68055600000000005</v>
-      </c>
-      <c r="T21" s="32">
         <v>0.50463000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>2</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" ref="B22:B29" si="4">AVERAGE(D22:M22,P22:T22)</f>
+        <f>AVERAGE(D22:M22,N22:R22)</f>
         <v>0.28333333333333338</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="3"/>
+        <f>MAX(D22:AG22)</f>
         <v>0.476852</v>
       </c>
       <c r="D22" s="32">
@@ -24644,37 +24409,31 @@
         <v>0.453704</v>
       </c>
       <c r="N22" s="32">
-        <v>0.27777800000000002</v>
+        <v>0.199074</v>
       </c>
       <c r="O22" s="32">
-        <v>0.39351900000000001</v>
+        <v>3.7037E-2</v>
       </c>
       <c r="P22" s="32">
-        <v>0.199074</v>
+        <v>0.36111100000000002</v>
       </c>
       <c r="Q22" s="32">
-        <v>3.7037E-2</v>
+        <v>0.43518499999999999</v>
       </c>
       <c r="R22" s="32">
-        <v>0.36111100000000002</v>
-      </c>
-      <c r="S22" s="32">
-        <v>0.43518499999999999</v>
-      </c>
-      <c r="T22" s="32">
         <v>0.171296</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>3</v>
       </c>
       <c r="B23" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D23:M23,N23:R23)</f>
         <v>0.82314813333333325</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="3"/>
+        <f>MAX(D23:AG23)</f>
         <v>0.89351899999999995</v>
       </c>
       <c r="D23" s="32">
@@ -24708,37 +24467,31 @@
         <v>0.875</v>
       </c>
       <c r="N23" s="32">
-        <v>0.64814799999999995</v>
+        <v>0.86111099999999996</v>
       </c>
       <c r="O23" s="32">
-        <v>0.55092600000000003</v>
+        <v>0.89351899999999995</v>
       </c>
       <c r="P23" s="32">
+        <v>0.84259300000000004</v>
+      </c>
+      <c r="Q23" s="32">
+        <v>0.84722200000000003</v>
+      </c>
+      <c r="R23" s="32">
         <v>0.86111099999999996</v>
       </c>
-      <c r="Q23" s="32">
-        <v>0.89351899999999995</v>
-      </c>
-      <c r="R23" s="32">
-        <v>0.84259300000000004</v>
-      </c>
-      <c r="S23" s="32">
-        <v>0.84722200000000003</v>
-      </c>
-      <c r="T23" s="32">
-        <v>0.86111099999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>4</v>
       </c>
       <c r="B24" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D24:M24,N24:R24)</f>
         <v>0.40555553333333333</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="3"/>
+        <f>MAX(D24:AG24)</f>
         <v>0.70833299999999999</v>
       </c>
       <c r="D24" s="32">
@@ -24772,37 +24525,31 @@
         <v>0.40972199999999998</v>
       </c>
       <c r="N24" s="32">
-        <v>0.215278</v>
+        <v>0.38888899999999998</v>
       </c>
       <c r="O24" s="32">
-        <v>0.29166700000000001</v>
+        <v>0.34027800000000002</v>
       </c>
       <c r="P24" s="32">
-        <v>0.38888899999999998</v>
+        <v>0.70833299999999999</v>
       </c>
       <c r="Q24" s="32">
-        <v>0.34027800000000002</v>
+        <v>0.53472200000000003</v>
       </c>
       <c r="R24" s="32">
-        <v>0.70833299999999999</v>
-      </c>
-      <c r="S24" s="32">
-        <v>0.53472200000000003</v>
-      </c>
-      <c r="T24" s="32">
         <v>0.39583299999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <v>5</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D25:M25,N25:R25)</f>
         <v>0.53395059999999994</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="3"/>
+        <f>MAX(D25:AG25)</f>
         <v>0.72222200000000003</v>
       </c>
       <c r="D25" s="32">
@@ -24836,37 +24583,31 @@
         <v>0.70833299999999999</v>
       </c>
       <c r="N25" s="32">
-        <v>0.41666700000000001</v>
+        <v>0.56944399999999995</v>
       </c>
       <c r="O25" s="32">
-        <v>0.64351899999999995</v>
+        <v>0.26851900000000001</v>
       </c>
       <c r="P25" s="32">
-        <v>0.56944399999999995</v>
+        <v>0.51851899999999995</v>
       </c>
       <c r="Q25" s="32">
-        <v>0.26851900000000001</v>
+        <v>0.625</v>
       </c>
       <c r="R25" s="32">
-        <v>0.51851899999999995</v>
-      </c>
-      <c r="S25" s="32">
-        <v>0.625</v>
-      </c>
-      <c r="T25" s="32">
         <v>0.48611100000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <v>6</v>
       </c>
       <c r="B26" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D26:M26,N26:R26)</f>
         <v>0.73672826666666669</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="3"/>
+        <f>MAX(D26:AG26)</f>
         <v>0.80092600000000003</v>
       </c>
       <c r="D26" s="32">
@@ -24900,37 +24641,31 @@
         <v>0.77314799999999995</v>
       </c>
       <c r="N26" s="32">
-        <v>0.55092600000000003</v>
+        <v>0.80092600000000003</v>
       </c>
       <c r="O26" s="32">
-        <v>0.48611100000000002</v>
+        <v>0.70833299999999999</v>
       </c>
       <c r="P26" s="32">
-        <v>0.80092600000000003</v>
+        <v>0.78240699999999996</v>
       </c>
       <c r="Q26" s="32">
-        <v>0.70833299999999999</v>
+        <v>0.75925900000000002</v>
       </c>
       <c r="R26" s="32">
-        <v>0.78240699999999996</v>
-      </c>
-      <c r="S26" s="32">
-        <v>0.75925900000000002</v>
-      </c>
-      <c r="T26" s="32">
         <v>0.71759300000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <v>7</v>
       </c>
       <c r="B27" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D27:M27,N27:R27)</f>
         <v>0.6006172666666667</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="3"/>
+        <f>MAX(D27:AG27)</f>
         <v>0.73611099999999996</v>
       </c>
       <c r="D27" s="32">
@@ -24964,37 +24699,31 @@
         <v>0.69907399999999997</v>
       </c>
       <c r="N27" s="32">
-        <v>0.38425900000000002</v>
+        <v>0.68055600000000005</v>
       </c>
       <c r="O27" s="32">
-        <v>0.55092600000000003</v>
+        <v>0.28703699999999999</v>
       </c>
       <c r="P27" s="32">
-        <v>0.68055600000000005</v>
+        <v>0.62036999999999998</v>
       </c>
       <c r="Q27" s="32">
-        <v>0.28703699999999999</v>
+        <v>0.73611099999999996</v>
       </c>
       <c r="R27" s="32">
-        <v>0.62036999999999998</v>
-      </c>
-      <c r="S27" s="32">
-        <v>0.73611099999999996</v>
-      </c>
-      <c r="T27" s="32">
         <v>0.48148099999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>8</v>
       </c>
       <c r="B28" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D28:M28,N28:R28)</f>
         <v>0.80802460000000009</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="3"/>
+        <f>MAX(D28:AG28)</f>
         <v>0.875</v>
       </c>
       <c r="D28" s="32">
@@ -25028,37 +24757,31 @@
         <v>0.796296</v>
       </c>
       <c r="N28" s="32">
-        <v>0.65277799999999997</v>
+        <v>0.78703699999999999</v>
       </c>
       <c r="O28" s="32">
-        <v>0.56944399999999995</v>
+        <v>0.84722200000000003</v>
       </c>
       <c r="P28" s="32">
-        <v>0.78703699999999999</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="Q28" s="32">
-        <v>0.84722200000000003</v>
+        <v>0.81018500000000004</v>
       </c>
       <c r="R28" s="32">
-        <v>0.81944399999999995</v>
-      </c>
-      <c r="S28" s="32">
-        <v>0.81018500000000004</v>
-      </c>
-      <c r="T28" s="32">
         <v>0.83333299999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <v>9</v>
       </c>
       <c r="B29" s="7">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D29:M29,N29:R29)</f>
         <v>0.8351852666666667</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="3"/>
+        <f>MAX(D29:AG29)</f>
         <v>0.89351899999999995</v>
       </c>
       <c r="D29" s="32">
@@ -25092,28 +24815,22 @@
         <v>0.86111099999999996</v>
       </c>
       <c r="N29" s="32">
-        <v>0.68518500000000004</v>
+        <v>0.89351899999999995</v>
       </c>
       <c r="O29" s="32">
-        <v>0.60185200000000005</v>
+        <v>0.88425900000000002</v>
       </c>
       <c r="P29" s="32">
-        <v>0.89351899999999995</v>
+        <v>0.85648100000000005</v>
       </c>
       <c r="Q29" s="32">
-        <v>0.88425900000000002</v>
+        <v>0.84259300000000004</v>
       </c>
       <c r="R29" s="32">
-        <v>0.85648100000000005</v>
-      </c>
-      <c r="S29" s="32">
         <v>0.84259300000000004</v>
       </c>
-      <c r="T29" s="32">
-        <v>0.84259300000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>1</v>
       </c>
@@ -25126,66 +24843,58 @@
         <v>0.76440333333333343</v>
       </c>
       <c r="D30" s="24">
-        <f t="shared" ref="D30:P30" si="5">AVERAGE(D21:D29)</f>
+        <f t="shared" ref="D30:N30" si="1">AVERAGE(D21:D29)</f>
         <v>0.66563766666666657</v>
       </c>
       <c r="E30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.54501022222222217</v>
       </c>
       <c r="F30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.54218100000000002</v>
       </c>
       <c r="G30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.62242822222222227</v>
       </c>
       <c r="H30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.65380666666666665</v>
       </c>
       <c r="I30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.65354922222222223</v>
       </c>
       <c r="J30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.60802466666666666</v>
       </c>
       <c r="K30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.62319966666666671</v>
       </c>
       <c r="L30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.6628087777777778</v>
       </c>
       <c r="M30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.69675911111111111</v>
       </c>
       <c r="N30" s="28">
-        <f t="shared" si="5"/>
-        <v>0.46476344444444451</v>
-      </c>
-      <c r="O30" s="28">
-        <f t="shared" si="5"/>
-        <v>0.49691366666666664</v>
-      </c>
-      <c r="P30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0.64454733333333314</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>0</v>
       </c>
@@ -25196,16 +24905,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>1</v>
       </c>
       <c r="B36" s="3">
-        <f>AVERAGE(D36:M36,P36:T36)</f>
+        <f>AVERAGE(D36:M36,N36:R36)</f>
         <v>0.7726850666666667</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" ref="C36:C44" si="6">MAX(D36:AI36)</f>
+        <f>MAX(D36:AG36)</f>
         <v>0.84375</v>
       </c>
       <c r="D36" s="32">
@@ -25239,37 +24948,31 @@
         <v>0.81597200000000003</v>
       </c>
       <c r="N36" s="32">
-        <v>0.52430600000000005</v>
+        <v>0.81597200000000003</v>
       </c>
       <c r="O36" s="32">
-        <v>0.53819399999999995</v>
+        <v>0.78125</v>
       </c>
       <c r="P36" s="32">
-        <v>0.81597200000000003</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="Q36" s="32">
-        <v>0.78125</v>
+        <v>0.76388900000000004</v>
       </c>
       <c r="R36" s="32">
-        <v>0.81944399999999995</v>
-      </c>
-      <c r="S36" s="32">
-        <v>0.76388900000000004</v>
-      </c>
-      <c r="T36" s="32">
         <v>0.84027799999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>2</v>
       </c>
       <c r="B37" s="5">
-        <f t="shared" ref="B37:B44" si="7">AVERAGE(D37:M37,P37:T37)</f>
+        <f>AVERAGE(D37:M37,N37:R37)</f>
         <v>0.56226846666666652</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" si="6"/>
+        <f>MAX(D37:AG37)</f>
         <v>0.71527799999999997</v>
       </c>
       <c r="D37" s="32">
@@ -25303,37 +25006,31 @@
         <v>0.61458299999999999</v>
       </c>
       <c r="N37" s="32">
-        <v>0.45833299999999999</v>
+        <v>0.58333299999999999</v>
       </c>
       <c r="O37" s="32">
-        <v>0.54513900000000004</v>
+        <v>0.44791700000000001</v>
       </c>
       <c r="P37" s="32">
-        <v>0.58333299999999999</v>
+        <v>0.67361099999999996</v>
       </c>
       <c r="Q37" s="32">
-        <v>0.44791700000000001</v>
+        <v>0.60069399999999995</v>
       </c>
       <c r="R37" s="32">
-        <v>0.67361099999999996</v>
-      </c>
-      <c r="S37" s="32">
-        <v>0.60069399999999995</v>
-      </c>
-      <c r="T37" s="32">
         <v>0.71527799999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <v>3</v>
       </c>
       <c r="B38" s="5">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(D38:M38,N38:R38)</f>
         <v>0.8777778666666668</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="6"/>
+        <f>MAX(D38:AG38)</f>
         <v>0.90625</v>
       </c>
       <c r="D38" s="32">
@@ -25367,37 +25064,31 @@
         <v>0.89583299999999999</v>
       </c>
       <c r="N38" s="32">
-        <v>0.73611099999999996</v>
+        <v>0.85416700000000001</v>
       </c>
       <c r="O38" s="32">
-        <v>0.66319399999999995</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="P38" s="32">
-        <v>0.85416700000000001</v>
+        <v>0.89930600000000005</v>
       </c>
       <c r="Q38" s="32">
         <v>0.88888900000000004</v>
       </c>
       <c r="R38" s="32">
-        <v>0.89930600000000005</v>
-      </c>
-      <c r="S38" s="32">
-        <v>0.88888900000000004</v>
-      </c>
-      <c r="T38" s="32">
         <v>0.86805600000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <v>4</v>
       </c>
       <c r="B39" s="5">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(D39:M39,N39:R39)</f>
         <v>0.57743053333333327</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" si="6"/>
+        <f>MAX(D39:AG39)</f>
         <v>0.765625</v>
       </c>
       <c r="D39" s="32">
@@ -25431,37 +25122,31 @@
         <v>0.58333299999999999</v>
       </c>
       <c r="N39" s="32">
-        <v>0.41145799999999999</v>
+        <v>0.52083299999999999</v>
       </c>
       <c r="O39" s="32">
-        <v>0.46875</v>
+        <v>0.47916700000000001</v>
       </c>
       <c r="P39" s="32">
-        <v>0.52083299999999999</v>
+        <v>0.765625</v>
       </c>
       <c r="Q39" s="32">
-        <v>0.47916700000000001</v>
+        <v>0.63020799999999999</v>
       </c>
       <c r="R39" s="32">
-        <v>0.765625</v>
-      </c>
-      <c r="S39" s="32">
-        <v>0.63020799999999999</v>
-      </c>
-      <c r="T39" s="32">
         <v>0.64583299999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <v>5</v>
       </c>
       <c r="B40" s="5">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(D40:M40,N40:R40)</f>
         <v>0.72384259999999989</v>
       </c>
       <c r="C40" s="6">
-        <f t="shared" si="6"/>
+        <f>MAX(D40:AG40)</f>
         <v>0.83333299999999999</v>
       </c>
       <c r="D40" s="32">
@@ -25495,37 +25180,31 @@
         <v>0.78472200000000003</v>
       </c>
       <c r="N40" s="32">
-        <v>0.56597200000000003</v>
+        <v>0.80208299999999999</v>
       </c>
       <c r="O40" s="32">
-        <v>0.74652799999999997</v>
+        <v>0.68402799999999997</v>
       </c>
       <c r="P40" s="32">
-        <v>0.80208299999999999</v>
+        <v>0.80555600000000005</v>
       </c>
       <c r="Q40" s="32">
-        <v>0.68402799999999997</v>
+        <v>0.74305600000000005</v>
       </c>
       <c r="R40" s="32">
-        <v>0.80555600000000005</v>
-      </c>
-      <c r="S40" s="32">
-        <v>0.74305600000000005</v>
-      </c>
-      <c r="T40" s="32">
         <v>0.76388900000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <v>6</v>
       </c>
       <c r="B41" s="5">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(D41:M41,N41:R41)</f>
         <v>0.8129630000000001</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" si="6"/>
+        <f>MAX(D41:AG41)</f>
         <v>0.85069399999999995</v>
       </c>
       <c r="D41" s="32">
@@ -25559,37 +25238,31 @@
         <v>0.84375</v>
       </c>
       <c r="N41" s="32">
-        <v>0.65277799999999997</v>
+        <v>0.78472200000000003</v>
       </c>
       <c r="O41" s="32">
-        <v>0.60763900000000004</v>
+        <v>0.77430600000000005</v>
       </c>
       <c r="P41" s="32">
-        <v>0.78472200000000003</v>
+        <v>0.84027799999999997</v>
       </c>
       <c r="Q41" s="32">
-        <v>0.77430600000000005</v>
+        <v>0.85069399999999995</v>
       </c>
       <c r="R41" s="32">
-        <v>0.84027799999999997</v>
-      </c>
-      <c r="S41" s="32">
-        <v>0.85069399999999995</v>
-      </c>
-      <c r="T41" s="32">
         <v>0.82291700000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>7</v>
       </c>
       <c r="B42" s="5">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(D42:M42,N42:R42)</f>
         <v>0.75879626666666666</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" si="6"/>
+        <f>MAX(D42:AG42)</f>
         <v>0.86111099999999996</v>
       </c>
       <c r="D42" s="32">
@@ -25623,37 +25296,31 @@
         <v>0.79166700000000001</v>
       </c>
       <c r="N42" s="32">
-        <v>0.54166700000000001</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="O42" s="32">
-        <v>0.67708299999999999</v>
+        <v>0.68055600000000005</v>
       </c>
       <c r="P42" s="32">
-        <v>0.83333299999999999</v>
+        <v>0.82638900000000004</v>
       </c>
       <c r="Q42" s="32">
-        <v>0.68055600000000005</v>
+        <v>0.76041700000000001</v>
       </c>
       <c r="R42" s="32">
-        <v>0.82638900000000004</v>
-      </c>
-      <c r="S42" s="32">
-        <v>0.76041700000000001</v>
-      </c>
-      <c r="T42" s="32">
         <v>0.81944399999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <v>8</v>
       </c>
       <c r="B43" s="5">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(D43:M43,N43:R43)</f>
         <v>0.86481486666666663</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="6"/>
+        <f>MAX(D43:AG43)</f>
         <v>0.90277799999999997</v>
       </c>
       <c r="D43" s="32">
@@ -25687,37 +25354,31 @@
         <v>0.875</v>
       </c>
       <c r="N43" s="32">
-        <v>0.72916700000000001</v>
+        <v>0.875</v>
       </c>
       <c r="O43" s="32">
-        <v>0.66666700000000001</v>
+        <v>0.89236099999999996</v>
       </c>
       <c r="P43" s="32">
-        <v>0.875</v>
+        <v>0.85763900000000004</v>
       </c>
       <c r="Q43" s="32">
-        <v>0.89236099999999996</v>
+        <v>0.86458299999999999</v>
       </c>
       <c r="R43" s="32">
-        <v>0.85763900000000004</v>
-      </c>
-      <c r="S43" s="32">
-        <v>0.86458299999999999</v>
-      </c>
-      <c r="T43" s="32">
         <v>0.85416700000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>9</v>
       </c>
       <c r="B44" s="7">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(D44:M44,N44:R44)</f>
         <v>0.89560186666666664</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="6"/>
+        <f>MAX(D44:AG44)</f>
         <v>0.93402799999999997</v>
       </c>
       <c r="D44" s="32">
@@ -25751,28 +25412,22 @@
         <v>0.88888900000000004</v>
       </c>
       <c r="N44" s="32">
-        <v>0.78125</v>
+        <v>0.88888900000000004</v>
       </c>
       <c r="O44" s="32">
-        <v>0.69791700000000001</v>
+        <v>0.93402799999999997</v>
       </c>
       <c r="P44" s="32">
-        <v>0.88888900000000004</v>
+        <v>0.90277799999999997</v>
       </c>
       <c r="Q44" s="32">
-        <v>0.93402799999999997</v>
+        <v>0.90625</v>
       </c>
       <c r="R44" s="32">
-        <v>0.90277799999999997</v>
-      </c>
-      <c r="S44" s="32">
-        <v>0.90625</v>
-      </c>
-      <c r="T44" s="32">
         <v>0.87847200000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>1</v>
       </c>
@@ -25785,82 +25440,74 @@
         <v>0.84587188888888887</v>
       </c>
       <c r="D45" s="24">
-        <f t="shared" ref="D45:T45" si="8">AVERAGE(D36:D44)</f>
+        <f t="shared" ref="D45:R45" si="2">AVERAGE(D36:D44)</f>
         <v>0.75868033333333318</v>
       </c>
       <c r="E45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.79108788888888881</v>
       </c>
       <c r="F45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.79822522222222214</v>
       </c>
       <c r="G45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.74614177777777768</v>
       </c>
       <c r="H45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.73707566666666657</v>
       </c>
       <c r="I45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.66030111111111112</v>
       </c>
       <c r="J45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.78414366666666657</v>
       </c>
       <c r="K45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.63310188888888896</v>
       </c>
       <c r="L45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.81018522222222222</v>
       </c>
       <c r="M45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.78819433333333333</v>
       </c>
       <c r="N45" s="28">
-        <f t="shared" si="8"/>
-        <v>0.6001157777777778</v>
-      </c>
-      <c r="O45" s="28">
-        <f t="shared" si="8"/>
-        <v>0.62345677777777775</v>
-      </c>
-      <c r="P45" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.77314799999999995</v>
       </c>
+      <c r="O45" s="32">
+        <f t="shared" si="2"/>
+        <v>0.72916688888888892</v>
+      </c>
+      <c r="P45" s="32">
+        <f t="shared" si="2"/>
+        <v>0.82118066666666656</v>
+      </c>
       <c r="Q45" s="32">
-        <f t="shared" si="8"/>
-        <v>0.72916688888888892</v>
+        <f t="shared" si="2"/>
+        <v>0.77874222222222234</v>
       </c>
       <c r="R45" s="32">
-        <f t="shared" si="8"/>
-        <v>0.82118066666666656</v>
-      </c>
-      <c r="S45" s="32">
-        <f t="shared" si="8"/>
-        <v>0.77874222222222234</v>
-      </c>
-      <c r="T45" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.80092600000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="35" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>0</v>
       </c>
@@ -25871,16 +25518,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <f>AVERAGE(D49:M49,P49:T49)</f>
+        <f>AVERAGE(D49:M49,N49:R49)</f>
         <v>0.69691360000000002</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" ref="C49:C57" si="9">MAX(D49:AI49)</f>
+        <f>MAX(D49:AG49)</f>
         <v>0.79166700000000001</v>
       </c>
       <c r="D49" s="32">
@@ -25914,37 +25561,31 @@
         <v>0.75463000000000002</v>
       </c>
       <c r="N49" s="32">
-        <v>0.36574099999999998</v>
+        <v>0.75463000000000002</v>
       </c>
       <c r="O49" s="32">
-        <v>0.38425900000000002</v>
+        <v>0.70833299999999999</v>
       </c>
       <c r="P49" s="32">
-        <v>0.75463000000000002</v>
+        <v>0.75925900000000002</v>
       </c>
       <c r="Q49" s="32">
-        <v>0.70833299999999999</v>
+        <v>0.68518500000000004</v>
       </c>
       <c r="R49" s="32">
-        <v>0.75925900000000002</v>
-      </c>
-      <c r="S49" s="32">
-        <v>0.68518500000000004</v>
-      </c>
-      <c r="T49" s="32">
         <v>0.78703699999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>2</v>
       </c>
       <c r="B50" s="5">
-        <f t="shared" ref="B50:B57" si="10">AVERAGE(D50:M50,P50:T50)</f>
+        <f>AVERAGE(D50:M50,N50:R50)</f>
         <v>0.41635810666666667</v>
       </c>
       <c r="C50" s="6">
-        <f t="shared" si="9"/>
+        <f>MAX(D50:AG50)</f>
         <v>0.62036999999999998</v>
       </c>
       <c r="D50" s="32">
@@ -25978,37 +25619,31 @@
         <v>0.48611100000000002</v>
       </c>
       <c r="N50" s="32">
-        <v>0.27777800000000002</v>
+        <v>0.44444400000000001</v>
       </c>
       <c r="O50" s="32">
-        <v>0.39351900000000001</v>
+        <v>0.26388899999999998</v>
       </c>
       <c r="P50" s="32">
-        <v>0.44444400000000001</v>
+        <v>0.56481499999999996</v>
       </c>
       <c r="Q50" s="32">
-        <v>0.26388899999999998</v>
+        <v>0.46759299999999998</v>
       </c>
       <c r="R50" s="32">
-        <v>0.56481499999999996</v>
-      </c>
-      <c r="S50" s="32">
-        <v>0.46759299999999998</v>
-      </c>
-      <c r="T50" s="32">
         <v>0.62036999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>3</v>
       </c>
       <c r="B51" s="5">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(D51:M51,N51:R51)</f>
         <v>0.83703699999999992</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" si="9"/>
+        <f>MAX(D51:AG51)</f>
         <v>0.875</v>
       </c>
       <c r="D51" s="32">
@@ -26042,37 +25677,31 @@
         <v>0.86111099999999996</v>
       </c>
       <c r="N51" s="32">
-        <v>0.64814799999999995</v>
+        <v>0.80555600000000005</v>
       </c>
       <c r="O51" s="32">
-        <v>0.55092600000000003</v>
+        <v>0.85185200000000005</v>
       </c>
       <c r="P51" s="32">
-        <v>0.80555600000000005</v>
+        <v>0.86574099999999998</v>
       </c>
       <c r="Q51" s="32">
         <v>0.85185200000000005</v>
       </c>
       <c r="R51" s="32">
-        <v>0.86574099999999998</v>
-      </c>
-      <c r="S51" s="32">
-        <v>0.85185200000000005</v>
-      </c>
-      <c r="T51" s="32">
         <v>0.82407399999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <v>4</v>
       </c>
       <c r="B52" s="5">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(D52:M52,N52:R52)</f>
         <v>0.43657400000000002</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="9"/>
+        <f>MAX(D52:AG52)</f>
         <v>0.6875</v>
       </c>
       <c r="D52" s="32">
@@ -26106,37 +25735,31 @@
         <v>0.44444400000000001</v>
       </c>
       <c r="N52" s="32">
-        <v>0.215278</v>
+        <v>0.36111100000000002</v>
       </c>
       <c r="O52" s="32">
-        <v>0.29166700000000001</v>
+        <v>0.30555599999999999</v>
       </c>
       <c r="P52" s="32">
-        <v>0.36111100000000002</v>
+        <v>0.6875</v>
       </c>
       <c r="Q52" s="32">
-        <v>0.30555599999999999</v>
+        <v>0.50694399999999995</v>
       </c>
       <c r="R52" s="32">
-        <v>0.6875</v>
-      </c>
-      <c r="S52" s="32">
-        <v>0.50694399999999995</v>
-      </c>
-      <c r="T52" s="32">
         <v>0.52777799999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>5</v>
       </c>
       <c r="B53" s="5">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(D53:M53,N53:R53)</f>
         <v>0.63179006666666682</v>
       </c>
       <c r="C53" s="6">
-        <f t="shared" si="9"/>
+        <f>MAX(D53:AG53)</f>
         <v>0.77777799999999997</v>
       </c>
       <c r="D53" s="32">
@@ -26170,37 +25793,31 @@
         <v>0.71296300000000001</v>
       </c>
       <c r="N53" s="32">
-        <v>0.421296</v>
+        <v>0.73611099999999996</v>
       </c>
       <c r="O53" s="32">
-        <v>0.66203699999999999</v>
+        <v>0.578704</v>
       </c>
       <c r="P53" s="32">
-        <v>0.73611099999999996</v>
+        <v>0.74074099999999998</v>
       </c>
       <c r="Q53" s="32">
-        <v>0.578704</v>
+        <v>0.65740699999999996</v>
       </c>
       <c r="R53" s="32">
-        <v>0.74074099999999998</v>
-      </c>
-      <c r="S53" s="32">
-        <v>0.65740699999999996</v>
-      </c>
-      <c r="T53" s="32">
         <v>0.68518500000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>6</v>
       </c>
       <c r="B54" s="5">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(D54:M54,N54:R54)</f>
         <v>0.75061733333333336</v>
       </c>
       <c r="C54" s="6">
-        <f t="shared" si="9"/>
+        <f>MAX(D54:AG54)</f>
         <v>0.80092600000000003</v>
       </c>
       <c r="D54" s="32">
@@ -26234,37 +25851,31 @@
         <v>0.79166700000000001</v>
       </c>
       <c r="N54" s="32">
-        <v>0.53703699999999999</v>
+        <v>0.71296300000000001</v>
       </c>
       <c r="O54" s="32">
-        <v>0.476852</v>
+        <v>0.69907399999999997</v>
       </c>
       <c r="P54" s="32">
-        <v>0.71296300000000001</v>
+        <v>0.78703699999999999</v>
       </c>
       <c r="Q54" s="32">
-        <v>0.69907399999999997</v>
+        <v>0.80092600000000003</v>
       </c>
       <c r="R54" s="32">
-        <v>0.78703699999999999</v>
-      </c>
-      <c r="S54" s="32">
-        <v>0.80092600000000003</v>
-      </c>
-      <c r="T54" s="32">
         <v>0.76388900000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>7</v>
       </c>
       <c r="B55" s="5">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(D55:M55,N55:R55)</f>
         <v>0.6783950666666666</v>
       </c>
       <c r="C55" s="6">
-        <f t="shared" si="9"/>
+        <f>MAX(D55:AG55)</f>
         <v>0.81481499999999996</v>
       </c>
       <c r="D55" s="32">
@@ -26298,37 +25909,31 @@
         <v>0.72222200000000003</v>
       </c>
       <c r="N55" s="32">
-        <v>0.38888899999999998</v>
+        <v>0.77777799999999997</v>
       </c>
       <c r="O55" s="32">
-        <v>0.56944399999999995</v>
+        <v>0.57407399999999997</v>
       </c>
       <c r="P55" s="32">
-        <v>0.77777799999999997</v>
+        <v>0.76851899999999995</v>
       </c>
       <c r="Q55" s="32">
-        <v>0.57407399999999997</v>
+        <v>0.68055600000000005</v>
       </c>
       <c r="R55" s="32">
-        <v>0.76851899999999995</v>
-      </c>
-      <c r="S55" s="32">
-        <v>0.68055600000000005</v>
-      </c>
-      <c r="T55" s="32">
         <v>0.75925900000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>8</v>
       </c>
       <c r="B56" s="5">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(D56:M56,N56:R56)</f>
         <v>0.81975293333333343</v>
       </c>
       <c r="C56" s="6">
-        <f t="shared" si="9"/>
+        <f>MAX(D56:AG56)</f>
         <v>0.87036999999999998</v>
       </c>
       <c r="D56" s="32">
@@ -26362,37 +25967,31 @@
         <v>0.83333299999999999</v>
       </c>
       <c r="N56" s="32">
-        <v>0.63888900000000004</v>
+        <v>0.83333299999999999</v>
       </c>
       <c r="O56" s="32">
-        <v>0.55555600000000005</v>
+        <v>0.85648100000000005</v>
       </c>
       <c r="P56" s="32">
-        <v>0.83333299999999999</v>
+        <v>0.81018500000000004</v>
       </c>
       <c r="Q56" s="32">
-        <v>0.85648100000000005</v>
+        <v>0.81944399999999995</v>
       </c>
       <c r="R56" s="32">
-        <v>0.81018500000000004</v>
-      </c>
-      <c r="S56" s="32">
-        <v>0.81944399999999995</v>
-      </c>
-      <c r="T56" s="32">
         <v>0.80555600000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <v>9</v>
       </c>
       <c r="B57" s="7">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(D57:M57,N57:R57)</f>
         <v>0.86080253333333334</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="9"/>
+        <f>MAX(D57:AG57)</f>
         <v>0.91203699999999999</v>
       </c>
       <c r="D57" s="32">
@@ -26426,28 +26025,22 @@
         <v>0.85185200000000005</v>
       </c>
       <c r="N57" s="32">
-        <v>0.70833299999999999</v>
+        <v>0.85185200000000005</v>
       </c>
       <c r="O57" s="32">
-        <v>0.59722200000000003</v>
+        <v>0.91203699999999999</v>
       </c>
       <c r="P57" s="32">
-        <v>0.85185200000000005</v>
+        <v>0.87036999999999998</v>
       </c>
       <c r="Q57" s="32">
-        <v>0.91203699999999999</v>
+        <v>0.875</v>
       </c>
       <c r="R57" s="32">
-        <v>0.87036999999999998</v>
-      </c>
-      <c r="S57" s="32">
-        <v>0.875</v>
-      </c>
-      <c r="T57" s="32">
         <v>0.83796300000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>1</v>
       </c>
@@ -26460,89 +26053,80 @@
         <v>0.79449588888888889</v>
       </c>
       <c r="D58" s="24">
-        <f t="shared" ref="D58:T58" si="11">AVERAGE(D49:D57)</f>
+        <f t="shared" ref="D58:R58" si="3">AVERAGE(D49:D57)</f>
         <v>0.67824077777777769</v>
       </c>
       <c r="E58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.72145066666666657</v>
       </c>
       <c r="F58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.73096711111111112</v>
       </c>
       <c r="G58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.6615225555555555</v>
       </c>
       <c r="H58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.64943411111111116</v>
       </c>
       <c r="I58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.54706802222222217</v>
       </c>
       <c r="J58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.71219144444444449</v>
       </c>
       <c r="K58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.51080226666666662</v>
       </c>
       <c r="L58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.74691344444444452</v>
       </c>
       <c r="M58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.71759255555555557</v>
       </c>
       <c r="N58" s="28">
-        <f t="shared" si="11"/>
-        <v>0.46682099999999987</v>
-      </c>
-      <c r="O58" s="28">
-        <f t="shared" si="11"/>
-        <v>0.49794244444444452</v>
-      </c>
-      <c r="P58" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.69753088888888881</v>
       </c>
+      <c r="O58" s="32">
+        <f t="shared" si="3"/>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="P58" s="32">
+        <f t="shared" si="3"/>
+        <v>0.76157411111111117</v>
+      </c>
       <c r="Q58" s="32">
-        <f t="shared" si="11"/>
-        <v>0.63888888888888884</v>
+        <f t="shared" si="3"/>
+        <v>0.70498966666666663</v>
       </c>
       <c r="R58" s="32">
-        <f t="shared" si="11"/>
-        <v>0.76157411111111117</v>
-      </c>
-      <c r="S58" s="32">
-        <f t="shared" si="11"/>
-        <v>0.70498966666666663</v>
-      </c>
-      <c r="T58" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.73456788888888902</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B63" s="36" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B63" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="N3:O3"/>
+  <mergeCells count="8">
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="B63:D63"/>
@@ -26550,160 +26134,160 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Q30:R30">
+  <conditionalFormatting sqref="O30:P30">
     <cfRule type="top10" dxfId="75" priority="255" bottom="1" rank="2"/>
     <cfRule type="top10" dxfId="74" priority="256" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:U17">
-    <cfRule type="top10" dxfId="73" priority="845" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="72" priority="846" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:T8">
-    <cfRule type="top10" dxfId="71" priority="55" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="70" priority="56" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:T9">
-    <cfRule type="top10" dxfId="69" priority="57" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="68" priority="58" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:T10">
-    <cfRule type="top10" dxfId="67" priority="59" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="66" priority="60" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:T11">
-    <cfRule type="top10" dxfId="65" priority="61" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="64" priority="62" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:T12">
-    <cfRule type="top10" dxfId="63" priority="63" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="62" priority="64" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:T13">
-    <cfRule type="top10" dxfId="61" priority="65" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="60" priority="66" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:T14">
-    <cfRule type="top10" dxfId="59" priority="67" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="58" priority="68" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:T15">
-    <cfRule type="top10" dxfId="57" priority="69" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="56" priority="70" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:T16">
-    <cfRule type="top10" dxfId="55" priority="71" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="54" priority="72" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:T21">
-    <cfRule type="top10" dxfId="53" priority="37" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="52" priority="38" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:T22">
-    <cfRule type="top10" dxfId="51" priority="39" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="50" priority="40" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:T23">
-    <cfRule type="top10" dxfId="49" priority="41" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="48" priority="42" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:T24">
-    <cfRule type="top10" dxfId="47" priority="43" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="46" priority="44" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:T25">
-    <cfRule type="top10" dxfId="45" priority="45" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="44" priority="46" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:T26">
-    <cfRule type="top10" dxfId="43" priority="47" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="42" priority="48" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:T27">
-    <cfRule type="top10" dxfId="41" priority="49" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="40" priority="50" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:T28">
-    <cfRule type="top10" dxfId="39" priority="51" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="38" priority="52" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29:T29">
-    <cfRule type="top10" dxfId="37" priority="53" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="36" priority="54" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:T36">
-    <cfRule type="top10" dxfId="35" priority="19" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="34" priority="20" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:T37">
-    <cfRule type="top10" dxfId="33" priority="21" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="32" priority="22" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:T38">
-    <cfRule type="top10" dxfId="31" priority="23" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="30" priority="24" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:T39">
-    <cfRule type="top10" dxfId="29" priority="25" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="28" priority="26" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:T40">
-    <cfRule type="top10" dxfId="27" priority="27" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="26" priority="28" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:T41">
-    <cfRule type="top10" dxfId="25" priority="29" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="24" priority="30" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:T42">
-    <cfRule type="top10" dxfId="23" priority="31" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="22" priority="32" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:T43">
-    <cfRule type="top10" dxfId="21" priority="33" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="20" priority="34" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44:T44">
-    <cfRule type="top10" dxfId="19" priority="35" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="18" priority="36" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:T49">
-    <cfRule type="top10" dxfId="17" priority="1" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="16" priority="2" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:T50">
-    <cfRule type="top10" dxfId="15" priority="3" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="14" priority="4" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:T51">
-    <cfRule type="top10" dxfId="13" priority="5" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="12" priority="6" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:T52">
-    <cfRule type="top10" dxfId="11" priority="7" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="10" priority="8" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53:T53">
-    <cfRule type="top10" dxfId="9" priority="9" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="8" priority="10" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:T54">
-    <cfRule type="top10" dxfId="7" priority="11" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="6" priority="12" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55:T55">
-    <cfRule type="top10" dxfId="5" priority="13" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="4" priority="14" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:T56">
-    <cfRule type="top10" dxfId="3" priority="15" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="2" priority="16" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:T57">
-    <cfRule type="top10" dxfId="1" priority="17" bottom="1" rank="2"/>
-    <cfRule type="top10" dxfId="0" priority="18" rank="2"/>
+  <conditionalFormatting sqref="D17:S17">
+    <cfRule type="top10" dxfId="73" priority="921" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="72" priority="922" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:R8">
+    <cfRule type="top10" dxfId="71" priority="925" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="70" priority="926" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:R9">
+    <cfRule type="top10" dxfId="69" priority="929" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="68" priority="930" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:R10">
+    <cfRule type="top10" dxfId="67" priority="933" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="66" priority="934" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:R11">
+    <cfRule type="top10" dxfId="65" priority="937" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="64" priority="938" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:R12">
+    <cfRule type="top10" dxfId="63" priority="941" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="62" priority="942" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:R13">
+    <cfRule type="top10" dxfId="61" priority="945" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="60" priority="946" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:R14">
+    <cfRule type="top10" dxfId="59" priority="949" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="58" priority="950" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:R15">
+    <cfRule type="top10" dxfId="57" priority="953" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="56" priority="954" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:R16">
+    <cfRule type="top10" dxfId="55" priority="957" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="54" priority="958" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:R21">
+    <cfRule type="top10" dxfId="53" priority="961" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="52" priority="962" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:R22">
+    <cfRule type="top10" dxfId="51" priority="965" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="50" priority="966" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:R23">
+    <cfRule type="top10" dxfId="49" priority="969" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="48" priority="970" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:R24">
+    <cfRule type="top10" dxfId="47" priority="973" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="46" priority="974" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:R25">
+    <cfRule type="top10" dxfId="45" priority="977" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="44" priority="978" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:R26">
+    <cfRule type="top10" dxfId="43" priority="981" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="42" priority="982" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:R27">
+    <cfRule type="top10" dxfId="41" priority="985" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="40" priority="986" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:R28">
+    <cfRule type="top10" dxfId="39" priority="989" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="38" priority="990" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:R29">
+    <cfRule type="top10" dxfId="37" priority="993" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="36" priority="994" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:R36">
+    <cfRule type="top10" dxfId="35" priority="997" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="34" priority="998" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:R37">
+    <cfRule type="top10" dxfId="33" priority="1001" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="32" priority="1002" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:R38">
+    <cfRule type="top10" dxfId="31" priority="1005" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="30" priority="1006" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:R39">
+    <cfRule type="top10" dxfId="29" priority="1009" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="28" priority="1010" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:R40">
+    <cfRule type="top10" dxfId="27" priority="1013" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="26" priority="1014" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:R41">
+    <cfRule type="top10" dxfId="25" priority="1017" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="24" priority="1018" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:R42">
+    <cfRule type="top10" dxfId="23" priority="1021" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="22" priority="1022" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:R43">
+    <cfRule type="top10" dxfId="21" priority="1025" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="20" priority="1026" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:R44">
+    <cfRule type="top10" dxfId="19" priority="1029" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="18" priority="1030" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:R49">
+    <cfRule type="top10" dxfId="17" priority="1033" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="16" priority="1034" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:R50">
+    <cfRule type="top10" dxfId="15" priority="1037" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="1038" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51:R51">
+    <cfRule type="top10" dxfId="13" priority="1041" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="1042" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:R52">
+    <cfRule type="top10" dxfId="11" priority="1045" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="1046" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:R53">
+    <cfRule type="top10" dxfId="9" priority="1049" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="1050" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:R54">
+    <cfRule type="top10" dxfId="7" priority="1053" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="1054" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:R55">
+    <cfRule type="top10" dxfId="5" priority="1057" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="4" priority="1058" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56:R56">
+    <cfRule type="top10" dxfId="3" priority="1061" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="1062" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:R57">
+    <cfRule type="top10" dxfId="1" priority="1065" bottom="1" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="1066" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
